--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_1_34.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_1_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2939384.966485884</v>
+        <v>2938450.46984119</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2144211.334678759</v>
+        <v>2144211.33467876</v>
       </c>
     </row>
     <row r="9">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D2" t="n">
-        <v>350.7793262259401</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>412.725494085322</v>
@@ -676,7 +676,7 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H2" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>136.9537457384598</v>
@@ -706,22 +706,22 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>277.815727200971</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X2" t="n">
         <v>385.5580790162737</v>
@@ -822,10 +822,10 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -834,7 +834,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -870,19 +870,19 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>178.0255299935648</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>263.319551727384</v>
+        <v>30.18619505259853</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -901,10 +901,10 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
-        <v>381.5867174954989</v>
+        <v>93.89845649036793</v>
       </c>
       <c r="E5" t="n">
-        <v>27.11351486003573</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
         <v>412.725494085322</v>
@@ -916,7 +916,7 @@
         <v>320.8422199291742</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -961,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1056,7 +1056,7 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>134.6712833150416</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1101,10 +1101,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1116,10 +1116,10 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>256.4561542453787</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>220.8809405715231</v>
@@ -1144,13 +1144,13 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
-        <v>412.725494085322</v>
+        <v>313.5165762628389</v>
       </c>
       <c r="G8" t="n">
         <v>409.0311279568768</v>
       </c>
       <c r="H8" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>136.9537457384598</v>
@@ -1180,10 +1180,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1198,10 +1198,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
-        <v>167.9683453503095</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1290,25 +1290,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>78.82543546353251</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>155.7526754391568</v>
       </c>
       <c r="G10" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>190.7759213090781</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1372,7 +1372,7 @@
         <v>302.529608289768</v>
       </c>
       <c r="C11" t="n">
-        <v>20.92387208244046</v>
+        <v>295.2835565175837</v>
       </c>
       <c r="D11" t="n">
         <v>287.626527530984</v>
@@ -1387,10 +1387,10 @@
         <v>315.0694058739639</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>226.8663391571162</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>42.93448877940764</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1423,16 +1423,16 @@
         <v>70.85331639585155</v>
       </c>
       <c r="T11" t="n">
-        <v>127.2986996033755</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>159.2348897357606</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>244.7255512390018</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>273.3288547168805</v>
+        <v>260.4274829233519</v>
       </c>
       <c r="X11" t="n">
         <v>291.5978890517588</v>
@@ -1539,10 +1539,10 @@
         <v>60.04303405487455</v>
       </c>
       <c r="F13" t="n">
-        <v>61.79248547464174</v>
+        <v>61.79248547464182</v>
       </c>
       <c r="G13" t="n">
-        <v>72.61063614146569</v>
+        <v>72.6106361414656</v>
       </c>
       <c r="H13" t="n">
         <v>59.95746523682634</v>
@@ -1612,22 +1612,22 @@
         <v>295.2835565175837</v>
       </c>
       <c r="D14" t="n">
-        <v>232.464507662907</v>
+        <v>287.626527530984</v>
       </c>
       <c r="E14" t="n">
         <v>304.5974996701059</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>318.7653041208071</v>
       </c>
       <c r="G14" t="n">
         <v>315.0694058739639</v>
       </c>
       <c r="H14" t="n">
-        <v>226.8663391571162</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>42.93448877940764</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1660,16 +1660,16 @@
         <v>70.85331639585155</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>127.2986996033755</v>
       </c>
       <c r="U14" t="n">
         <v>159.2348897357606</v>
       </c>
       <c r="V14" t="n">
-        <v>244.7255512390018</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>273.3288547168805</v>
+        <v>200.7602327413317</v>
       </c>
       <c r="X14" t="n">
         <v>291.5978890517588</v>
@@ -1785,7 +1785,7 @@
         <v>59.95746523682634</v>
       </c>
       <c r="I16" t="n">
-        <v>37.78262349550687</v>
+        <v>37.78262349550688</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>28.67088799977355</v>
+        <v>28.67088799977381</v>
       </c>
       <c r="S16" t="n">
         <v>106.8157560245397</v>
@@ -1830,7 +1830,7 @@
         <v>186.5369080836192</v>
       </c>
       <c r="X16" t="n">
-        <v>137.7793290303316</v>
+        <v>137.7793290303318</v>
       </c>
       <c r="Y16" t="n">
         <v>126.9207506070081</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>302.529608289768</v>
       </c>
       <c r="C17" t="n">
         <v>295.2835565175837</v>
@@ -1852,10 +1852,10 @@
         <v>287.626527530984</v>
       </c>
       <c r="E17" t="n">
-        <v>62.96659558820686</v>
+        <v>304.5974996701059</v>
       </c>
       <c r="F17" t="n">
-        <v>318.7653041208071</v>
+        <v>174.9261862635351</v>
       </c>
       <c r="G17" t="n">
         <v>315.0694058739639</v>
@@ -1864,7 +1864,7 @@
         <v>226.8663391571162</v>
       </c>
       <c r="I17" t="n">
-        <v>42.93448877940764</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>70.85331639585155</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>127.2986996033755</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>159.2348897357606</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>244.7255512390018</v>
@@ -2022,7 +2022,7 @@
         <v>59.95746523682634</v>
       </c>
       <c r="I19" t="n">
-        <v>37.7826234955069</v>
+        <v>37.78262349550688</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>28.67088799977381</v>
+        <v>28.67088799977356</v>
       </c>
       <c r="S19" t="n">
-        <v>106.8157560245397</v>
+        <v>106.8157560245396</v>
       </c>
       <c r="T19" t="n">
         <v>139.3987348933234</v>
       </c>
       <c r="U19" t="n">
-        <v>188.6241763893355</v>
+        <v>188.6241763893358</v>
       </c>
       <c r="V19" t="n">
         <v>169.3593617628691</v>
@@ -2086,13 +2086,13 @@
         <v>295.2835565175837</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>287.626527530984</v>
       </c>
       <c r="E20" t="n">
-        <v>48.06351482942281</v>
+        <v>304.5974996701059</v>
       </c>
       <c r="F20" t="n">
-        <v>318.7653041208071</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>315.0694058739639</v>
@@ -2131,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>70.85331639585155</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>127.2986996033755</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>159.2348897357606</v>
@@ -2146,7 +2146,7 @@
         <v>273.3288547168805</v>
       </c>
       <c r="X20" t="n">
-        <v>291.5978890517588</v>
+        <v>264.3546968001255</v>
       </c>
       <c r="Y20" t="n">
         <v>298.5656120240899</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>28.67088799977355</v>
+        <v>28.67088799977356</v>
       </c>
       <c r="S22" t="n">
         <v>106.8157560245397</v>
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>302.529608289768</v>
       </c>
       <c r="C23" t="n">
         <v>295.2835565175837</v>
@@ -2335,7 +2335,7 @@
         <v>315.0694058739639</v>
       </c>
       <c r="H23" t="n">
-        <v>226.8663391571162</v>
+        <v>83.02722129984431</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>70.85331639585155</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>127.2986996033755</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>159.2348897357606</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>244.7255512390018</v>
@@ -2383,7 +2383,7 @@
         <v>273.3288547168805</v>
       </c>
       <c r="X23" t="n">
-        <v>92.9014737492672</v>
+        <v>291.5978890517588</v>
       </c>
       <c r="Y23" t="n">
         <v>298.5656120240899</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>28.67088799977355</v>
+        <v>28.67088799977356</v>
       </c>
       <c r="S25" t="n">
         <v>106.8157560245397</v>
@@ -2557,7 +2557,7 @@
         <v>302.529608289768</v>
       </c>
       <c r="C26" t="n">
-        <v>295.2835565175837</v>
+        <v>67.38638764220501</v>
       </c>
       <c r="D26" t="n">
         <v>287.626527530984</v>
@@ -2572,7 +2572,7 @@
         <v>315.0694058739639</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>226.8663391571162</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,19 +2605,19 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>70.85331639585155</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>127.2986996033755</v>
       </c>
       <c r="U26" t="n">
-        <v>83.02722129984426</v>
+        <v>159.2348897357606</v>
       </c>
       <c r="V26" t="n">
         <v>244.7255512390018</v>
       </c>
       <c r="W26" t="n">
-        <v>273.3288547168805</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>291.5978890517588</v>
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>89.39574853987334</v>
+        <v>89.39574853987331</v>
       </c>
       <c r="C28" t="n">
-        <v>74.54287679015574</v>
+        <v>74.54287679015567</v>
       </c>
       <c r="D28" t="n">
-        <v>60.11659200199547</v>
+        <v>60.11659200199544</v>
       </c>
       <c r="E28" t="n">
-        <v>60.04303405487458</v>
+        <v>60.04303405487455</v>
       </c>
       <c r="F28" t="n">
-        <v>61.79248547464185</v>
+        <v>61.79248547464182</v>
       </c>
       <c r="G28" t="n">
-        <v>72.61063614146572</v>
+        <v>72.61063614146569</v>
       </c>
       <c r="H28" t="n">
-        <v>59.95746523682595</v>
+        <v>59.95746523682634</v>
       </c>
       <c r="I28" t="n">
-        <v>37.7826234955069</v>
+        <v>37.78262349550687</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>28.67088799977358</v>
+        <v>28.67088799977356</v>
       </c>
       <c r="S28" t="n">
         <v>106.8157560245397</v>
       </c>
       <c r="T28" t="n">
-        <v>139.3987348933235</v>
+        <v>139.3987348933234</v>
       </c>
       <c r="U28" t="n">
         <v>188.6241763893358</v>
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>302.529608289768</v>
       </c>
       <c r="C29" t="n">
         <v>295.2835565175837</v>
@@ -2812,7 +2812,7 @@
         <v>226.8663391571162</v>
       </c>
       <c r="I29" t="n">
-        <v>42.93448877940767</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,19 +2842,19 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>70.85331639585158</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>127.2986996033755</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>159.2348897357606</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>244.7255512390018</v>
       </c>
       <c r="W29" t="n">
-        <v>31.69795063498151</v>
+        <v>129.489736859609</v>
       </c>
       <c r="X29" t="n">
         <v>291.5978890517588</v>
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>89.39574853987334</v>
+        <v>89.39574853987331</v>
       </c>
       <c r="C31" t="n">
-        <v>74.54287679015574</v>
+        <v>74.54287679015572</v>
       </c>
       <c r="D31" t="n">
-        <v>60.11659200199547</v>
+        <v>60.11659200199544</v>
       </c>
       <c r="E31" t="n">
-        <v>60.04303405487458</v>
+        <v>60.04303405487455</v>
       </c>
       <c r="F31" t="n">
-        <v>61.79248547464185</v>
+        <v>61.79248547464182</v>
       </c>
       <c r="G31" t="n">
-        <v>72.61063614146529</v>
+        <v>72.61063614146569</v>
       </c>
       <c r="H31" t="n">
-        <v>59.95746523682637</v>
+        <v>59.95746523682634</v>
       </c>
       <c r="I31" t="n">
-        <v>37.7826234955069</v>
+        <v>37.78262349550688</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>28.67088799977358</v>
+        <v>28.67088799977356</v>
       </c>
       <c r="S31" t="n">
         <v>106.8157560245397</v>
       </c>
       <c r="T31" t="n">
-        <v>139.3987348933235</v>
+        <v>139.3987348933234</v>
       </c>
       <c r="U31" t="n">
-        <v>188.6241763893358</v>
+        <v>188.6241763893355</v>
       </c>
       <c r="V31" t="n">
         <v>169.3593617628691</v>
@@ -3034,7 +3034,7 @@
         <v>295.2835565175837</v>
       </c>
       <c r="D32" t="n">
-        <v>287.626527530984</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>304.5974996701059</v>
@@ -3046,10 +3046,10 @@
         <v>315.0694058739639</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>226.8663391571162</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>42.93448877940767</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>70.85331639585158</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>127.2986996033755</v>
       </c>
       <c r="U32" t="n">
-        <v>159.2348897357606</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>244.7255512390018</v>
@@ -3094,7 +3094,7 @@
         <v>273.3288547168805</v>
       </c>
       <c r="X32" t="n">
-        <v>17.23820461661554</v>
+        <v>265.1521103426881</v>
       </c>
       <c r="Y32" t="n">
         <v>298.5656120240899</v>
@@ -3265,13 +3265,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>74.6324394143892</v>
+        <v>302.529608289768</v>
       </c>
       <c r="C35" t="n">
-        <v>295.2835565175837</v>
+        <v>81.68406045630809</v>
       </c>
       <c r="D35" t="n">
-        <v>287.626527530984</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>304.5974996701059</v>
@@ -3328,7 +3328,7 @@
         <v>244.7255512390018</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>273.3288547168805</v>
       </c>
       <c r="X35" t="n">
         <v>291.5978890517588</v>
@@ -3444,7 +3444,7 @@
         <v>59.95746523682637</v>
       </c>
       <c r="I37" t="n">
-        <v>37.78262349550691</v>
+        <v>37.7826234955069</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,13 +3474,13 @@
         <v>28.67088799977358</v>
       </c>
       <c r="S37" t="n">
-        <v>106.8157560245398</v>
+        <v>106.8157560245397</v>
       </c>
       <c r="T37" t="n">
-        <v>139.3987348933234</v>
+        <v>139.3987348933235</v>
       </c>
       <c r="U37" t="n">
-        <v>188.6241763893351</v>
+        <v>188.6241763893358</v>
       </c>
       <c r="V37" t="n">
         <v>169.3593617628691</v>
@@ -3514,13 +3514,13 @@
         <v>304.5974996701059</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>318.7653041208071</v>
       </c>
       <c r="G38" t="n">
-        <v>132.6086864025115</v>
+        <v>315.0694058739639</v>
       </c>
       <c r="H38" t="n">
-        <v>226.8663391571162</v>
+        <v>83.02722129984431</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>70.85331639585158</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>127.2986996033755</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>159.2348897357606</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>244.7255512390018</v>
@@ -3678,10 +3678,10 @@
         <v>72.61063614146572</v>
       </c>
       <c r="H40" t="n">
-        <v>59.95746523682637</v>
+        <v>59.9574652368264</v>
       </c>
       <c r="I40" t="n">
-        <v>37.7826234955069</v>
+        <v>37.78262349550691</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3714,10 +3714,10 @@
         <v>106.8157560245397</v>
       </c>
       <c r="T40" t="n">
-        <v>139.3987348933235</v>
+        <v>139.3987348933234</v>
       </c>
       <c r="U40" t="n">
-        <v>188.6241763893358</v>
+        <v>188.6241763893353</v>
       </c>
       <c r="V40" t="n">
         <v>169.3593617628691</v>
@@ -3739,13 +3739,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C41" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D41" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>398.5576896346209</v>
@@ -3754,13 +3754,13 @@
         <v>412.725494085322</v>
       </c>
       <c r="G41" t="n">
-        <v>216.1518039631279</v>
+        <v>409.0295958384789</v>
       </c>
       <c r="H41" t="n">
-        <v>320.8265291216312</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>136.8946787439226</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3787,10 +3787,10 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>37.51674264501764</v>
       </c>
       <c r="S41" t="n">
-        <v>164.8135063603665</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -3799,13 +3799,13 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>338.6857412035168</v>
+        <v>56.57540364616582</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y41" t="n">
         <v>392.5258019886049</v>
@@ -3909,7 +3909,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3951,19 +3951,19 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>233.3589248578384</v>
+        <v>98.23170877880342</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>282.5843663538507</v>
       </c>
       <c r="V43" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>240.6215401512561</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3979,7 +3979,7 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C44" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -3988,7 +3988,7 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G44" t="n">
         <v>409.0295958384789</v>
@@ -3997,7 +3997,7 @@
         <v>320.8265291216312</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>97.07379339018918</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4024,16 +4024,16 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>37.51674264501764</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>164.8135063603665</v>
       </c>
       <c r="T44" t="n">
-        <v>221.2588895678904</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>101.6269004309059</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4137,7 +4137,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>4.182459121974389</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4155,7 +4155,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>131.7428134600218</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4191,19 +4191,19 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>48.99016218542447</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W46" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X46" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2111.502565654009</v>
+        <v>1809.130068874072</v>
       </c>
       <c r="C2" t="n">
-        <v>2111.502565654009</v>
+        <v>1415.954567377002</v>
       </c>
       <c r="D2" t="n">
-        <v>1757.180013910635</v>
+        <v>1030.51343859367</v>
       </c>
       <c r="E2" t="n">
-        <v>1354.596489027179</v>
+        <v>1030.51343859367</v>
       </c>
       <c r="F2" t="n">
-        <v>937.702050557157</v>
+        <v>613.6190001236475</v>
       </c>
       <c r="G2" t="n">
-        <v>524.5392950451601</v>
+        <v>200.4562446116507</v>
       </c>
       <c r="H2" t="n">
         <v>200.4562446116507</v>
@@ -4354,28 +4354,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R2" t="n">
-        <v>3067.963471491298</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S2" t="n">
-        <v>2901.449916432349</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T2" t="n">
-        <v>2901.449916432349</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="U2" t="n">
-        <v>2901.449916432349</v>
+        <v>2850.203655640375</v>
       </c>
       <c r="V2" t="n">
-        <v>2901.449916432349</v>
+        <v>2569.581708972727</v>
       </c>
       <c r="W2" t="n">
-        <v>2901.449916432349</v>
+        <v>2198.582673941015</v>
       </c>
       <c r="X2" t="n">
-        <v>2511.997311365405</v>
+        <v>1809.130068874072</v>
       </c>
       <c r="Y2" t="n">
-        <v>2511.997311365405</v>
+        <v>1809.130068874072</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>861.4851108441464</v>
+        <v>1586.986833370171</v>
       </c>
       <c r="C3" t="n">
-        <v>710.8308804042387</v>
+        <v>1436.332602930263</v>
       </c>
       <c r="D3" t="n">
-        <v>580.741913025719</v>
+        <v>1306.243635551744</v>
       </c>
       <c r="E3" t="n">
-        <v>444.2954221366068</v>
+        <v>1169.797144662632</v>
       </c>
       <c r="F3" t="n">
-        <v>319.8636160197386</v>
+        <v>1045.365338545763</v>
       </c>
       <c r="G3" t="n">
-        <v>199.803798091603</v>
+        <v>925.3055206176277</v>
       </c>
       <c r="H3" t="n">
-        <v>111.5063816922039</v>
+        <v>837.0081042182287</v>
       </c>
       <c r="I3" t="n">
-        <v>62.11912770411553</v>
+        <v>787.6208502301403</v>
       </c>
       <c r="J3" t="n">
-        <v>175.2341099238429</v>
+        <v>900.7358324498676</v>
       </c>
       <c r="K3" t="n">
-        <v>494.9732559860694</v>
+        <v>1220.474978512094</v>
       </c>
       <c r="L3" t="n">
-        <v>978.5393418843826</v>
+        <v>1704.041064410407</v>
       </c>
       <c r="M3" t="n">
-        <v>1606.310991511064</v>
+        <v>1704.041064410407</v>
       </c>
       <c r="N3" t="n">
-        <v>2146.089571124861</v>
+        <v>2355.071011059905</v>
       </c>
       <c r="O3" t="n">
-        <v>2146.089571124861</v>
+        <v>2871.591293650886</v>
       </c>
       <c r="P3" t="n">
-        <v>2146.089571124861</v>
+        <v>2871.591293650886</v>
       </c>
       <c r="Q3" t="n">
-        <v>2380.454662679751</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R3" t="n">
-        <v>2356.537619577816</v>
+        <v>3082.039342103841</v>
       </c>
       <c r="S3" t="n">
-        <v>2221.606942477685</v>
+        <v>2947.10866500371</v>
       </c>
       <c r="T3" t="n">
-        <v>2044.623130676593</v>
+        <v>2770.124853202618</v>
       </c>
       <c r="U3" t="n">
-        <v>1834.559987355235</v>
+        <v>2560.06170988126</v>
       </c>
       <c r="V3" t="n">
-        <v>1612.019985726302</v>
+        <v>2337.521708252327</v>
       </c>
       <c r="W3" t="n">
-        <v>1381.902739859589</v>
+        <v>2107.404462385613</v>
       </c>
       <c r="X3" t="n">
-        <v>1192.595662209601</v>
+        <v>1918.097384735625</v>
       </c>
       <c r="Y3" t="n">
-        <v>1013.281445285108</v>
+        <v>1738.783167811132</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2374.714480598234</v>
+        <v>698.9947219149151</v>
       </c>
       <c r="C4" t="n">
-        <v>2204.509362664224</v>
+        <v>528.7896039809043</v>
       </c>
       <c r="D4" t="n">
-        <v>2204.509362664224</v>
+        <v>373.1564908834191</v>
       </c>
       <c r="E4" t="n">
-        <v>2204.509362664224</v>
+        <v>217.5976787426216</v>
       </c>
       <c r="F4" t="n">
-        <v>2204.509362664224</v>
+        <v>217.5976787426216</v>
       </c>
       <c r="G4" t="n">
-        <v>2204.509362664224</v>
+        <v>217.5976787426216</v>
       </c>
       <c r="H4" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I4" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J4" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K4" t="n">
-        <v>2286.344403774166</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L4" t="n">
-        <v>2450.472043647965</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M4" t="n">
-        <v>2636.763621986229</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N4" t="n">
-        <v>2819.953256017438</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O4" t="n">
-        <v>2982.658023059147</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P4" t="n">
-        <v>3102.534188835725</v>
+        <v>960.1439538756169</v>
       </c>
       <c r="Q4" t="n">
-        <v>3105.956385205776</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="R4" t="n">
-        <v>3105.956385205776</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="S4" t="n">
-        <v>3105.956385205776</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="T4" t="n">
-        <v>2926.132617535509</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="U4" t="n">
-        <v>2640.69382577741</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="V4" t="n">
-        <v>2374.714480598234</v>
+        <v>933.075044131932</v>
       </c>
       <c r="W4" t="n">
-        <v>2374.714480598234</v>
+        <v>933.075044131932</v>
       </c>
       <c r="X4" t="n">
-        <v>2374.714480598234</v>
+        <v>698.9947219149151</v>
       </c>
       <c r="Y4" t="n">
-        <v>2374.714480598234</v>
+        <v>698.9947219149151</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2022.263391147557</v>
+        <v>2245.202441155551</v>
       </c>
       <c r="C5" t="n">
-        <v>1629.087889650487</v>
+        <v>1852.026939658481</v>
       </c>
       <c r="D5" t="n">
-        <v>1243.646760867155</v>
+        <v>1757.180013910635</v>
       </c>
       <c r="E5" t="n">
-        <v>1216.259372119644</v>
+        <v>1354.596489027179</v>
       </c>
       <c r="F5" t="n">
-        <v>799.3649336496217</v>
+        <v>937.702050557157</v>
       </c>
       <c r="G5" t="n">
-        <v>386.2021781376249</v>
+        <v>524.5392950451601</v>
       </c>
       <c r="H5" t="n">
-        <v>62.11912770411553</v>
+        <v>200.4562446116507</v>
       </c>
       <c r="I5" t="n">
         <v>62.11912770411553</v>
@@ -4594,25 +4594,25 @@
         <v>3067.963471491298</v>
       </c>
       <c r="S5" t="n">
-        <v>3067.963471491298</v>
+        <v>2901.449916432349</v>
       </c>
       <c r="T5" t="n">
-        <v>3067.963471491298</v>
+        <v>2901.449916432349</v>
       </c>
       <c r="U5" t="n">
-        <v>2812.210741925897</v>
+        <v>2645.697186866948</v>
       </c>
       <c r="V5" t="n">
-        <v>2812.210741925897</v>
+        <v>2645.697186866948</v>
       </c>
       <c r="W5" t="n">
-        <v>2812.210741925897</v>
+        <v>2645.697186866948</v>
       </c>
       <c r="X5" t="n">
-        <v>2422.758136858954</v>
+        <v>2645.697186866948</v>
       </c>
       <c r="Y5" t="n">
-        <v>2422.758136858954</v>
+        <v>2645.697186866948</v>
       </c>
     </row>
     <row r="6">
@@ -4646,19 +4646,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J6" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K6" t="n">
-        <v>494.9732559860694</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L6" t="n">
-        <v>494.9732559860694</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M6" t="n">
-        <v>1084.690231197904</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="N6" t="n">
-        <v>1740.468202408463</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O6" t="n">
         <v>1740.468202408463</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>62.11912770411553</v>
+        <v>228.5289971861364</v>
       </c>
       <c r="C7" t="n">
-        <v>62.11912770411553</v>
+        <v>92.49739787801357</v>
       </c>
       <c r="D7" t="n">
-        <v>62.11912770411553</v>
+        <v>92.49739787801357</v>
       </c>
       <c r="E7" t="n">
-        <v>62.11912770411553</v>
+        <v>92.49739787801357</v>
       </c>
       <c r="F7" t="n">
-        <v>62.11912770411553</v>
+        <v>92.49739787801357</v>
       </c>
       <c r="G7" t="n">
-        <v>62.11912770411553</v>
+        <v>92.49739787801357</v>
       </c>
       <c r="H7" t="n">
-        <v>62.11912770411553</v>
+        <v>92.49739787801357</v>
       </c>
       <c r="I7" t="n">
-        <v>62.11912770411553</v>
+        <v>92.49739787801357</v>
       </c>
       <c r="J7" t="n">
         <v>62.11912770411553</v>
@@ -4749,28 +4749,28 @@
         <v>963.5661502456679</v>
       </c>
       <c r="R7" t="n">
-        <v>963.5661502456679</v>
+        <v>839.6651608782449</v>
       </c>
       <c r="S7" t="n">
-        <v>963.5661502456679</v>
+        <v>636.8490770607943</v>
       </c>
       <c r="T7" t="n">
-        <v>963.5661502456679</v>
+        <v>636.8490770607943</v>
       </c>
       <c r="U7" t="n">
-        <v>963.5661502456679</v>
+        <v>636.8490770607943</v>
       </c>
       <c r="V7" t="n">
-        <v>963.5661502456679</v>
+        <v>636.8490770607943</v>
       </c>
       <c r="W7" t="n">
-        <v>704.5195297957904</v>
+        <v>636.8490770607943</v>
       </c>
       <c r="X7" t="n">
-        <v>470.4392075787734</v>
+        <v>636.8490770607943</v>
       </c>
       <c r="Y7" t="n">
-        <v>247.3271463954168</v>
+        <v>413.7370158774377</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2535.796644191037</v>
+        <v>2111.502565654009</v>
       </c>
       <c r="C8" t="n">
-        <v>2142.621142693967</v>
+        <v>1718.327064156939</v>
       </c>
       <c r="D8" t="n">
-        <v>1757.180013910635</v>
+        <v>1332.885935373607</v>
       </c>
       <c r="E8" t="n">
-        <v>1354.596489027179</v>
+        <v>930.3024104901515</v>
       </c>
       <c r="F8" t="n">
-        <v>937.702050557157</v>
+        <v>613.6190001236475</v>
       </c>
       <c r="G8" t="n">
-        <v>524.5392950451601</v>
+        <v>200.4562446116507</v>
       </c>
       <c r="H8" t="n">
         <v>200.4562446116507</v>
@@ -4828,28 +4828,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R8" t="n">
-        <v>3105.956385205776</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="S8" t="n">
-        <v>3105.956385205776</v>
+        <v>2901.449916432349</v>
       </c>
       <c r="T8" t="n">
-        <v>3105.956385205776</v>
+        <v>2901.449916432349</v>
       </c>
       <c r="U8" t="n">
-        <v>3105.956385205776</v>
+        <v>2901.449916432349</v>
       </c>
       <c r="V8" t="n">
-        <v>3105.956385205776</v>
+        <v>2901.449916432349</v>
       </c>
       <c r="W8" t="n">
-        <v>3105.956385205776</v>
+        <v>2901.449916432349</v>
       </c>
       <c r="X8" t="n">
-        <v>3105.956385205776</v>
+        <v>2511.997311365405</v>
       </c>
       <c r="Y8" t="n">
-        <v>2936.291389902433</v>
+        <v>2511.997311365405</v>
       </c>
     </row>
     <row r="9">
@@ -4883,25 +4883,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J9" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K9" t="n">
-        <v>96.81867335321709</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="L9" t="n">
-        <v>580.3847592515303</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="M9" t="n">
-        <v>1208.156408878212</v>
+        <v>803.0057595505241</v>
       </c>
       <c r="N9" t="n">
-        <v>1863.93438008877</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O9" t="n">
-        <v>2380.454662679751</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P9" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q9" t="n">
         <v>2380.454662679751</v>
@@ -4938,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>778.3581315543667</v>
+        <v>219.4450624911426</v>
       </c>
       <c r="C10" t="n">
-        <v>778.3581315543667</v>
+        <v>219.4450624911426</v>
       </c>
       <c r="D10" t="n">
-        <v>698.7364795710005</v>
+        <v>219.4450624911426</v>
       </c>
       <c r="E10" t="n">
-        <v>543.177667430203</v>
+        <v>219.4450624911426</v>
       </c>
       <c r="F10" t="n">
-        <v>385.851732643176</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G10" t="n">
-        <v>217.5976787426216</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H10" t="n">
         <v>62.11912770411553</v>
@@ -4995,19 +4995,19 @@
         <v>963.5661502456679</v>
       </c>
       <c r="U10" t="n">
-        <v>963.5661502456679</v>
+        <v>678.1273584875689</v>
       </c>
       <c r="V10" t="n">
-        <v>963.5661502456679</v>
+        <v>412.1480133083932</v>
       </c>
       <c r="W10" t="n">
-        <v>963.5661502456679</v>
+        <v>219.4450624911426</v>
       </c>
       <c r="X10" t="n">
-        <v>963.5661502456679</v>
+        <v>219.4450624911426</v>
       </c>
       <c r="Y10" t="n">
-        <v>963.5661502456679</v>
+        <v>219.4450624911426</v>
       </c>
     </row>
     <row r="11">
@@ -5017,34 +5017,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1321.732939290282</v>
+        <v>1871.390022493986</v>
       </c>
       <c r="C11" t="n">
-        <v>1300.597714964584</v>
+        <v>1573.123803789356</v>
       </c>
       <c r="D11" t="n">
-        <v>1010.065868973691</v>
+        <v>1282.591957798463</v>
       </c>
       <c r="E11" t="n">
-        <v>702.3916268826752</v>
+        <v>974.9177157074466</v>
       </c>
       <c r="F11" t="n">
-        <v>380.4064712050922</v>
+        <v>652.9325600298638</v>
       </c>
       <c r="G11" t="n">
-        <v>62.15454607987608</v>
+        <v>334.6806349046477</v>
       </c>
       <c r="H11" t="n">
-        <v>62.15454607987608</v>
+        <v>105.5227165641262</v>
       </c>
       <c r="I11" t="n">
         <v>62.15454607987608</v>
       </c>
       <c r="J11" t="n">
-        <v>206.9330552562441</v>
+        <v>206.933055256244</v>
       </c>
       <c r="K11" t="n">
-        <v>566.1083535773133</v>
+        <v>566.1083535773134</v>
       </c>
       <c r="L11" t="n">
         <v>1059.668007272187</v>
@@ -5071,22 +5071,22 @@
         <v>3036.158297533348</v>
       </c>
       <c r="T11" t="n">
-        <v>2907.573752479433</v>
+        <v>3036.158297533348</v>
       </c>
       <c r="U11" t="n">
-        <v>2746.730429514018</v>
+        <v>3036.158297533348</v>
       </c>
       <c r="V11" t="n">
-        <v>2499.532903009976</v>
+        <v>3036.158297533348</v>
       </c>
       <c r="W11" t="n">
-        <v>2223.443150770703</v>
+        <v>2773.100233974406</v>
       </c>
       <c r="X11" t="n">
-        <v>1928.899828496199</v>
+        <v>2478.556911699903</v>
       </c>
       <c r="Y11" t="n">
-        <v>1627.318402209239</v>
+        <v>2176.975485412943</v>
       </c>
     </row>
     <row r="12">
@@ -5129,13 +5129,13 @@
         <v>545.896843300943</v>
       </c>
       <c r="M12" t="n">
-        <v>801.9038059467341</v>
+        <v>1173.874123229927</v>
       </c>
       <c r="N12" t="n">
-        <v>1457.892849881825</v>
+        <v>1829.863167165018</v>
       </c>
       <c r="O12" t="n">
-        <v>1974.60622277935</v>
+        <v>2346.576540062542</v>
       </c>
       <c r="P12" t="n">
         <v>2380.38256348989</v>
@@ -5187,7 +5187,7 @@
         <v>296.6426373409273</v>
       </c>
       <c r="F13" t="n">
-        <v>234.2259853463396</v>
+        <v>234.2259853463395</v>
       </c>
       <c r="G13" t="n">
         <v>160.8819084357682</v>
@@ -5254,34 +5254,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1450.317484344196</v>
+        <v>1642.232104153464</v>
       </c>
       <c r="C14" t="n">
-        <v>1152.051265639566</v>
+        <v>1343.965885448834</v>
       </c>
       <c r="D14" t="n">
-        <v>917.2386316366299</v>
+        <v>1053.434039457941</v>
       </c>
       <c r="E14" t="n">
-        <v>609.5643895456137</v>
+        <v>745.7597973669253</v>
       </c>
       <c r="F14" t="n">
-        <v>609.5643895456137</v>
+        <v>423.7746416893424</v>
       </c>
       <c r="G14" t="n">
-        <v>291.3124644203975</v>
+        <v>105.5227165641262</v>
       </c>
       <c r="H14" t="n">
-        <v>62.15454607987608</v>
+        <v>105.5227165641262</v>
       </c>
       <c r="I14" t="n">
         <v>62.15454607987608</v>
       </c>
       <c r="J14" t="n">
-        <v>206.933055256244</v>
+        <v>206.9330552562441</v>
       </c>
       <c r="K14" t="n">
-        <v>566.1083535773134</v>
+        <v>566.1083535773133</v>
       </c>
       <c r="L14" t="n">
         <v>1059.668007272187</v>
@@ -5308,22 +5308,22 @@
         <v>3036.158297533348</v>
       </c>
       <c r="T14" t="n">
-        <v>3036.158297533348</v>
+        <v>2907.573752479433</v>
       </c>
       <c r="U14" t="n">
-        <v>2875.314974567933</v>
+        <v>2746.730429514018</v>
       </c>
       <c r="V14" t="n">
-        <v>2628.117448063891</v>
+        <v>2746.730429514018</v>
       </c>
       <c r="W14" t="n">
-        <v>2352.027695824617</v>
+        <v>2543.942315633885</v>
       </c>
       <c r="X14" t="n">
-        <v>2057.484373550114</v>
+        <v>2249.398993359382</v>
       </c>
       <c r="Y14" t="n">
-        <v>1755.902947263154</v>
+        <v>1947.817567072422</v>
       </c>
     </row>
     <row r="15">
@@ -5366,16 +5366,16 @@
         <v>865.767038191971</v>
       </c>
       <c r="M15" t="n">
-        <v>1493.744318120955</v>
+        <v>1223.424163652914</v>
       </c>
       <c r="N15" t="n">
-        <v>2149.733362056046</v>
+        <v>1223.424163652914</v>
       </c>
       <c r="O15" t="n">
-        <v>2380.38256348989</v>
+        <v>1740.137536550438</v>
       </c>
       <c r="P15" t="n">
-        <v>2380.38256348989</v>
+        <v>2145.913877260978</v>
       </c>
       <c r="Q15" t="n">
         <v>2380.38256348989</v>
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>493.3118321359028</v>
+        <v>493.3118321359026</v>
       </c>
       <c r="C16" t="n">
-        <v>418.0159969943314</v>
+        <v>418.0159969943311</v>
       </c>
       <c r="D16" t="n">
-        <v>357.2921666892855</v>
+        <v>357.2921666892852</v>
       </c>
       <c r="E16" t="n">
-        <v>296.6426373409273</v>
+        <v>296.6426373409271</v>
       </c>
       <c r="F16" t="n">
-        <v>234.2259853463396</v>
+        <v>234.2259853463394</v>
       </c>
       <c r="G16" t="n">
         <v>160.8819084357682</v>
@@ -5442,10 +5442,10 @@
         <v>300.3841719365712</v>
       </c>
       <c r="L16" t="n">
-        <v>557.6335542733112</v>
+        <v>557.6335542733113</v>
       </c>
       <c r="M16" t="n">
-        <v>837.0523738063172</v>
+        <v>837.0523738063171</v>
       </c>
       <c r="N16" t="n">
         <v>1113.366713059221</v>
@@ -5460,7 +5460,7 @@
         <v>1678.667037520422</v>
       </c>
       <c r="R16" t="n">
-        <v>1649.706544591358</v>
+        <v>1649.706544591357</v>
       </c>
       <c r="S16" t="n">
         <v>1541.811841536267</v>
@@ -5472,16 +5472,16 @@
         <v>1210.475567513379</v>
       </c>
       <c r="V16" t="n">
-        <v>1039.405505126643</v>
+        <v>1039.405505126642</v>
       </c>
       <c r="W16" t="n">
-        <v>850.9843858502595</v>
+        <v>850.9843858502593</v>
       </c>
       <c r="X16" t="n">
-        <v>711.8133464256821</v>
+        <v>711.8133464256817</v>
       </c>
       <c r="Y16" t="n">
-        <v>583.6105680347648</v>
+        <v>583.6105680347646</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1627.318402209239</v>
+        <v>1682.729813770067</v>
       </c>
       <c r="C17" t="n">
-        <v>1329.052183504609</v>
+        <v>1384.463595065437</v>
       </c>
       <c r="D17" t="n">
-        <v>1038.520337513716</v>
+        <v>1093.931749074544</v>
       </c>
       <c r="E17" t="n">
-        <v>974.9177157074466</v>
+        <v>786.2575069835279</v>
       </c>
       <c r="F17" t="n">
-        <v>652.9325600298638</v>
+        <v>609.5643895456137</v>
       </c>
       <c r="G17" t="n">
-        <v>334.6806349046477</v>
+        <v>291.3124644203975</v>
       </c>
       <c r="H17" t="n">
-        <v>105.5227165641262</v>
+        <v>62.15454607987608</v>
       </c>
       <c r="I17" t="n">
         <v>62.15454607987608</v>
@@ -5542,25 +5542,25 @@
         <v>3107.727303993804</v>
       </c>
       <c r="S17" t="n">
-        <v>3036.158297533348</v>
+        <v>3107.727303993804</v>
       </c>
       <c r="T17" t="n">
-        <v>2907.573752479433</v>
+        <v>3107.727303993804</v>
       </c>
       <c r="U17" t="n">
-        <v>2746.730429514018</v>
+        <v>3107.727303993804</v>
       </c>
       <c r="V17" t="n">
-        <v>2499.532903009976</v>
+        <v>2860.529777489761</v>
       </c>
       <c r="W17" t="n">
-        <v>2223.443150770703</v>
+        <v>2584.440025250488</v>
       </c>
       <c r="X17" t="n">
-        <v>1928.899828496199</v>
+        <v>2289.896702975984</v>
       </c>
       <c r="Y17" t="n">
-        <v>1627.318402209239</v>
+        <v>1988.315276689025</v>
       </c>
     </row>
     <row r="18">
@@ -5597,22 +5597,22 @@
         <v>62.15454607987608</v>
       </c>
       <c r="K18" t="n">
-        <v>173.9265260177506</v>
+        <v>382.0247409709041</v>
       </c>
       <c r="L18" t="n">
-        <v>173.9265260177506</v>
+        <v>865.767038191971</v>
       </c>
       <c r="M18" t="n">
-        <v>801.9038059467341</v>
+        <v>1223.424163652914</v>
       </c>
       <c r="N18" t="n">
-        <v>1457.892849881825</v>
+        <v>1223.424163652914</v>
       </c>
       <c r="O18" t="n">
-        <v>1974.60622277935</v>
+        <v>1740.137536550438</v>
       </c>
       <c r="P18" t="n">
-        <v>2380.38256348989</v>
+        <v>2145.913877260978</v>
       </c>
       <c r="Q18" t="n">
         <v>2380.38256348989</v>
@@ -5652,10 +5652,10 @@
         <v>493.3118321359029</v>
       </c>
       <c r="C19" t="n">
-        <v>418.0159969943314</v>
+        <v>418.0159969943315</v>
       </c>
       <c r="D19" t="n">
-        <v>357.2921666892855</v>
+        <v>357.2921666892856</v>
       </c>
       <c r="E19" t="n">
         <v>296.6426373409274</v>
@@ -5664,10 +5664,10 @@
         <v>234.2259853463397</v>
       </c>
       <c r="G19" t="n">
-        <v>160.8819084357683</v>
+        <v>160.8819084357682</v>
       </c>
       <c r="H19" t="n">
-        <v>100.3188122369538</v>
+        <v>100.3188122369537</v>
       </c>
       <c r="I19" t="n">
         <v>62.15454607987608</v>
@@ -5679,10 +5679,10 @@
         <v>300.3841719365712</v>
       </c>
       <c r="L19" t="n">
-        <v>557.6335542733113</v>
+        <v>557.6335542733112</v>
       </c>
       <c r="M19" t="n">
-        <v>837.0523738063173</v>
+        <v>837.0523738063174</v>
       </c>
       <c r="N19" t="n">
         <v>1113.366713059222</v>
@@ -5728,16 +5728,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1321.732939290282</v>
+        <v>1549.404866816403</v>
       </c>
       <c r="C20" t="n">
-        <v>1023.466720585652</v>
+        <v>1251.138648111773</v>
       </c>
       <c r="D20" t="n">
-        <v>1023.466720585652</v>
+        <v>960.6068021208799</v>
       </c>
       <c r="E20" t="n">
-        <v>974.9177157074466</v>
+        <v>652.9325600298638</v>
       </c>
       <c r="F20" t="n">
         <v>652.9325600298638</v>
@@ -5752,10 +5752,10 @@
         <v>62.15454607987608</v>
       </c>
       <c r="J20" t="n">
-        <v>206.9330552562442</v>
+        <v>206.933055256244</v>
       </c>
       <c r="K20" t="n">
-        <v>566.108353577313</v>
+        <v>566.1083535773132</v>
       </c>
       <c r="L20" t="n">
         <v>1059.668007272187</v>
@@ -5779,25 +5779,25 @@
         <v>3107.727303993804</v>
       </c>
       <c r="S20" t="n">
-        <v>3036.158297533348</v>
+        <v>3107.727303993804</v>
       </c>
       <c r="T20" t="n">
-        <v>2907.573752479433</v>
+        <v>3107.727303993804</v>
       </c>
       <c r="U20" t="n">
-        <v>2746.730429514018</v>
+        <v>2946.883981028389</v>
       </c>
       <c r="V20" t="n">
-        <v>2499.532903009976</v>
+        <v>2699.686454524347</v>
       </c>
       <c r="W20" t="n">
-        <v>2223.443150770703</v>
+        <v>2423.596702285073</v>
       </c>
       <c r="X20" t="n">
-        <v>1928.899828496199</v>
+        <v>2156.57175602232</v>
       </c>
       <c r="Y20" t="n">
-        <v>1627.318402209239</v>
+        <v>1854.990329735361</v>
       </c>
     </row>
     <row r="21">
@@ -5831,25 +5831,25 @@
         <v>62.15454607987608</v>
       </c>
       <c r="J21" t="n">
-        <v>62.15454607987608</v>
+        <v>175.3462027386184</v>
       </c>
       <c r="K21" t="n">
-        <v>62.15454607987608</v>
+        <v>495.2163976296464</v>
       </c>
       <c r="L21" t="n">
-        <v>545.896843300943</v>
+        <v>495.2163976296464</v>
       </c>
       <c r="M21" t="n">
-        <v>1173.874123229927</v>
+        <v>567.4351197178223</v>
       </c>
       <c r="N21" t="n">
-        <v>1829.863167165018</v>
+        <v>1223.424163652914</v>
       </c>
       <c r="O21" t="n">
-        <v>2346.576540062542</v>
+        <v>1740.137536550438</v>
       </c>
       <c r="P21" t="n">
-        <v>2380.38256348989</v>
+        <v>2145.913877260978</v>
       </c>
       <c r="Q21" t="n">
         <v>2380.38256348989</v>
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1828.021852009736</v>
+        <v>1682.729813770067</v>
       </c>
       <c r="C23" t="n">
-        <v>1529.755633305106</v>
+        <v>1384.463595065437</v>
       </c>
       <c r="D23" t="n">
-        <v>1239.223787314213</v>
+        <v>1093.931749074544</v>
       </c>
       <c r="E23" t="n">
-        <v>931.5495452231967</v>
+        <v>786.2575069835279</v>
       </c>
       <c r="F23" t="n">
-        <v>609.5643895456137</v>
+        <v>464.2723513059451</v>
       </c>
       <c r="G23" t="n">
-        <v>291.3124644203975</v>
+        <v>146.0204261807289</v>
       </c>
       <c r="H23" t="n">
         <v>62.15454607987608</v>
@@ -5992,7 +5992,7 @@
         <v>206.933055256244</v>
       </c>
       <c r="K23" t="n">
-        <v>566.1083535773134</v>
+        <v>566.1083535773132</v>
       </c>
       <c r="L23" t="n">
         <v>1059.668007272187</v>
@@ -6016,25 +6016,25 @@
         <v>3107.727303993804</v>
       </c>
       <c r="S23" t="n">
-        <v>3036.158297533348</v>
+        <v>3107.727303993804</v>
       </c>
       <c r="T23" t="n">
-        <v>2907.573752479433</v>
+        <v>3107.727303993804</v>
       </c>
       <c r="U23" t="n">
-        <v>2746.730429514018</v>
+        <v>3107.727303993804</v>
       </c>
       <c r="V23" t="n">
-        <v>2499.532903009976</v>
+        <v>2860.529777489761</v>
       </c>
       <c r="W23" t="n">
-        <v>2223.443150770703</v>
+        <v>2584.440025250488</v>
       </c>
       <c r="X23" t="n">
-        <v>2129.603278296695</v>
+        <v>2289.896702975984</v>
       </c>
       <c r="Y23" t="n">
-        <v>1828.021852009736</v>
+        <v>1988.315276689025</v>
       </c>
     </row>
     <row r="24">
@@ -6071,22 +6071,22 @@
         <v>62.15454607987608</v>
       </c>
       <c r="K24" t="n">
-        <v>62.15454607987608</v>
+        <v>382.0247409709041</v>
       </c>
       <c r="L24" t="n">
-        <v>545.896843300943</v>
+        <v>865.767038191971</v>
       </c>
       <c r="M24" t="n">
-        <v>1173.874123229927</v>
+        <v>1223.424163652914</v>
       </c>
       <c r="N24" t="n">
-        <v>1829.863167165018</v>
+        <v>1223.424163652914</v>
       </c>
       <c r="O24" t="n">
-        <v>2346.576540062542</v>
+        <v>1740.137536550438</v>
       </c>
       <c r="P24" t="n">
-        <v>2380.38256348989</v>
+        <v>2145.913877260978</v>
       </c>
       <c r="Q24" t="n">
         <v>2380.38256348989</v>
@@ -6156,10 +6156,10 @@
         <v>557.6335542733112</v>
       </c>
       <c r="M25" t="n">
-        <v>837.0523738063173</v>
+        <v>837.0523738063172</v>
       </c>
       <c r="N25" t="n">
-        <v>1113.366713059222</v>
+        <v>1113.366713059221</v>
       </c>
       <c r="O25" t="n">
         <v>1369.188237211978</v>
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1598.863933669214</v>
+        <v>1597.822691529555</v>
       </c>
       <c r="C26" t="n">
-        <v>1300.597714964584</v>
+        <v>1529.755633305106</v>
       </c>
       <c r="D26" t="n">
-        <v>1010.065868973691</v>
+        <v>1239.223787314213</v>
       </c>
       <c r="E26" t="n">
-        <v>702.3916268826752</v>
+        <v>931.5495452231967</v>
       </c>
       <c r="F26" t="n">
-        <v>380.4064712050922</v>
+        <v>609.5643895456137</v>
       </c>
       <c r="G26" t="n">
-        <v>62.15454607987608</v>
+        <v>291.3124644203975</v>
       </c>
       <c r="H26" t="n">
         <v>62.15454607987608</v>
@@ -6226,10 +6226,10 @@
         <v>62.15454607987608</v>
       </c>
       <c r="J26" t="n">
-        <v>206.9330552562442</v>
+        <v>206.9330552562441</v>
       </c>
       <c r="K26" t="n">
-        <v>566.1083535773132</v>
+        <v>566.1083535773133</v>
       </c>
       <c r="L26" t="n">
         <v>1059.668007272187</v>
@@ -6253,25 +6253,25 @@
         <v>3107.727303993804</v>
       </c>
       <c r="S26" t="n">
-        <v>3107.727303993804</v>
+        <v>3036.158297533348</v>
       </c>
       <c r="T26" t="n">
-        <v>3107.727303993804</v>
+        <v>2907.573752479433</v>
       </c>
       <c r="U26" t="n">
-        <v>3023.861423892951</v>
+        <v>2746.730429514018</v>
       </c>
       <c r="V26" t="n">
-        <v>2776.663897388908</v>
+        <v>2499.532903009976</v>
       </c>
       <c r="W26" t="n">
-        <v>2500.574145149635</v>
+        <v>2499.532903009976</v>
       </c>
       <c r="X26" t="n">
-        <v>2206.030822875131</v>
+        <v>2204.989580735472</v>
       </c>
       <c r="Y26" t="n">
-        <v>1904.449396588172</v>
+        <v>1903.408154448513</v>
       </c>
     </row>
     <row r="27">
@@ -6308,22 +6308,22 @@
         <v>62.15454607987608</v>
       </c>
       <c r="K27" t="n">
-        <v>62.15454607987608</v>
+        <v>382.0247409709041</v>
       </c>
       <c r="L27" t="n">
-        <v>545.896843300943</v>
+        <v>865.767038191971</v>
       </c>
       <c r="M27" t="n">
-        <v>801.9038059467341</v>
+        <v>1223.424163652914</v>
       </c>
       <c r="N27" t="n">
-        <v>1457.892849881825</v>
+        <v>1223.424163652914</v>
       </c>
       <c r="O27" t="n">
-        <v>1974.60622277935</v>
+        <v>1740.137536550438</v>
       </c>
       <c r="P27" t="n">
-        <v>2380.38256348989</v>
+        <v>2145.913877260978</v>
       </c>
       <c r="Q27" t="n">
         <v>2380.38256348989</v>
@@ -6360,31 +6360,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>493.3118321359026</v>
+        <v>493.3118321359028</v>
       </c>
       <c r="C28" t="n">
-        <v>418.0159969943311</v>
+        <v>418.0159969943314</v>
       </c>
       <c r="D28" t="n">
-        <v>357.2921666892852</v>
+        <v>357.2921666892855</v>
       </c>
       <c r="E28" t="n">
-        <v>296.642637340927</v>
+        <v>296.6426373409273</v>
       </c>
       <c r="F28" t="n">
-        <v>234.2259853463393</v>
+        <v>234.2259853463396</v>
       </c>
       <c r="G28" t="n">
-        <v>160.8819084357679</v>
+        <v>160.8819084357682</v>
       </c>
       <c r="H28" t="n">
-        <v>100.3188122369538</v>
+        <v>100.3188122369537</v>
       </c>
       <c r="I28" t="n">
         <v>62.15454607987608</v>
       </c>
       <c r="J28" t="n">
-        <v>125.4494946262978</v>
+        <v>125.4494946262979</v>
       </c>
       <c r="K28" t="n">
         <v>300.3841719365712</v>
@@ -6429,7 +6429,7 @@
         <v>711.813346425682</v>
       </c>
       <c r="Y28" t="n">
-        <v>583.6105680347646</v>
+        <v>583.6105680347647</v>
       </c>
     </row>
     <row r="29">
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1871.390022493986</v>
+        <v>1828.021852009736</v>
       </c>
       <c r="C29" t="n">
-        <v>1573.123803789356</v>
+        <v>1529.755633305106</v>
       </c>
       <c r="D29" t="n">
-        <v>1282.591957798463</v>
+        <v>1239.223787314213</v>
       </c>
       <c r="E29" t="n">
-        <v>974.9177157074469</v>
+        <v>931.5495452231967</v>
       </c>
       <c r="F29" t="n">
-        <v>652.9325600298639</v>
+        <v>609.5643895456137</v>
       </c>
       <c r="G29" t="n">
-        <v>334.6806349046477</v>
+        <v>291.3124644203975</v>
       </c>
       <c r="H29" t="n">
-        <v>105.5227165641263</v>
+        <v>62.15454607987608</v>
       </c>
       <c r="I29" t="n">
         <v>62.15454607987608</v>
@@ -6490,25 +6490,25 @@
         <v>3107.727303993804</v>
       </c>
       <c r="S29" t="n">
-        <v>3036.158297533348</v>
+        <v>3107.727303993804</v>
       </c>
       <c r="T29" t="n">
-        <v>2907.573752479433</v>
+        <v>3107.727303993804</v>
       </c>
       <c r="U29" t="n">
-        <v>2746.730429514018</v>
+        <v>3107.727303993804</v>
       </c>
       <c r="V29" t="n">
-        <v>2499.532903009976</v>
+        <v>2860.529777489761</v>
       </c>
       <c r="W29" t="n">
-        <v>2467.514771055449</v>
+        <v>2729.732063490156</v>
       </c>
       <c r="X29" t="n">
-        <v>2172.971448780946</v>
+        <v>2435.188741215652</v>
       </c>
       <c r="Y29" t="n">
-        <v>1871.390022493986</v>
+        <v>2133.607314928693</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1588.82793547033</v>
+        <v>861.4831949664161</v>
       </c>
       <c r="C30" t="n">
-        <v>1438.173705030422</v>
+        <v>710.8289645265083</v>
       </c>
       <c r="D30" t="n">
-        <v>1308.084737651902</v>
+        <v>580.7399971479887</v>
       </c>
       <c r="E30" t="n">
-        <v>1171.63824676279</v>
+        <v>444.2935062588764</v>
       </c>
       <c r="F30" t="n">
-        <v>1047.206440645922</v>
+        <v>319.8617001420082</v>
       </c>
       <c r="G30" t="n">
-        <v>927.1474507537584</v>
+        <v>199.802710249845</v>
       </c>
       <c r="H30" t="n">
-        <v>838.8580314386188</v>
+        <v>111.5132909347054</v>
       </c>
       <c r="I30" t="n">
-        <v>789.4992865837895</v>
+        <v>62.15454607987608</v>
       </c>
       <c r="J30" t="n">
-        <v>789.4992865837895</v>
+        <v>62.15454607987608</v>
       </c>
       <c r="K30" t="n">
-        <v>789.4992865837895</v>
+        <v>382.0247409709041</v>
       </c>
       <c r="L30" t="n">
-        <v>1273.241583804856</v>
+        <v>865.767038191971</v>
       </c>
       <c r="M30" t="n">
-        <v>1901.21886373384</v>
+        <v>865.767038191971</v>
       </c>
       <c r="N30" t="n">
-        <v>2557.207907668932</v>
+        <v>1223.424163652914</v>
       </c>
       <c r="O30" t="n">
-        <v>3073.921280566456</v>
+        <v>1740.137536550438</v>
       </c>
       <c r="P30" t="n">
-        <v>3107.727303993804</v>
+        <v>2145.913877260978</v>
       </c>
       <c r="Q30" t="n">
-        <v>3107.727303993804</v>
+        <v>2380.38256348989</v>
       </c>
       <c r="R30" t="n">
-        <v>3083.861671756889</v>
+        <v>2356.516931252976</v>
       </c>
       <c r="S30" t="n">
-        <v>2948.946375061771</v>
+        <v>2221.601634557857</v>
       </c>
       <c r="T30" t="n">
-        <v>2771.965900826726</v>
+        <v>2044.621160322812</v>
       </c>
       <c r="U30" t="n">
-        <v>2561.902811981418</v>
+        <v>1834.558071477505</v>
       </c>
       <c r="V30" t="n">
-        <v>2339.362810352485</v>
+        <v>1612.018069848572</v>
       </c>
       <c r="W30" t="n">
-        <v>2109.245564485772</v>
+        <v>1381.900823981859</v>
       </c>
       <c r="X30" t="n">
-        <v>1919.938486835784</v>
+        <v>1192.59374633187</v>
       </c>
       <c r="Y30" t="n">
-        <v>1740.624269911291</v>
+        <v>1013.279529407377</v>
       </c>
     </row>
     <row r="31">
@@ -6597,43 +6597,43 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>493.3118321359026</v>
+        <v>493.3118321359029</v>
       </c>
       <c r="C31" t="n">
-        <v>418.0159969943311</v>
+        <v>418.0159969943315</v>
       </c>
       <c r="D31" t="n">
-        <v>357.2921666892852</v>
+        <v>357.2921666892856</v>
       </c>
       <c r="E31" t="n">
-        <v>296.642637340927</v>
+        <v>296.6426373409274</v>
       </c>
       <c r="F31" t="n">
-        <v>234.2259853463393</v>
+        <v>234.2259853463397</v>
       </c>
       <c r="G31" t="n">
-        <v>160.8819084357683</v>
+        <v>160.8819084357682</v>
       </c>
       <c r="H31" t="n">
-        <v>100.3188122369538</v>
+        <v>100.3188122369537</v>
       </c>
       <c r="I31" t="n">
         <v>62.15454607987608</v>
       </c>
       <c r="J31" t="n">
-        <v>125.4494946262978</v>
+        <v>125.4494946262979</v>
       </c>
       <c r="K31" t="n">
-        <v>300.3841719365712</v>
+        <v>300.3841719365713</v>
       </c>
       <c r="L31" t="n">
-        <v>557.6335542733112</v>
+        <v>557.6335542733113</v>
       </c>
       <c r="M31" t="n">
-        <v>837.0523738063172</v>
+        <v>837.0523738063173</v>
       </c>
       <c r="N31" t="n">
-        <v>1113.366713059221</v>
+        <v>1113.366713059222</v>
       </c>
       <c r="O31" t="n">
         <v>1369.188237211978</v>
@@ -6660,13 +6660,13 @@
         <v>1039.405505126643</v>
       </c>
       <c r="W31" t="n">
-        <v>850.9843858502595</v>
+        <v>850.9843858502596</v>
       </c>
       <c r="X31" t="n">
-        <v>711.813346425682</v>
+        <v>711.8133464256821</v>
       </c>
       <c r="Y31" t="n">
-        <v>583.6105680347646</v>
+        <v>583.6105680347648</v>
       </c>
     </row>
     <row r="32">
@@ -6676,34 +6676,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1598.863933669214</v>
+        <v>1580.858176503093</v>
       </c>
       <c r="C32" t="n">
-        <v>1300.597714964584</v>
+        <v>1282.591957798463</v>
       </c>
       <c r="D32" t="n">
-        <v>1010.065868973691</v>
+        <v>1282.591957798463</v>
       </c>
       <c r="E32" t="n">
-        <v>702.3916268826752</v>
+        <v>974.9177157074469</v>
       </c>
       <c r="F32" t="n">
-        <v>380.4064712050922</v>
+        <v>652.9325600298639</v>
       </c>
       <c r="G32" t="n">
-        <v>62.15454607987608</v>
+        <v>334.6806349046477</v>
       </c>
       <c r="H32" t="n">
-        <v>62.15454607987608</v>
+        <v>105.5227165641263</v>
       </c>
       <c r="I32" t="n">
         <v>62.15454607987608</v>
       </c>
       <c r="J32" t="n">
-        <v>206.933055256244</v>
+        <v>206.9330552562442</v>
       </c>
       <c r="K32" t="n">
-        <v>566.1083535773134</v>
+        <v>566.1083535773133</v>
       </c>
       <c r="L32" t="n">
         <v>1059.668007272187</v>
@@ -6718,7 +6718,7 @@
         <v>2574.312337350826</v>
       </c>
       <c r="P32" t="n">
-        <v>2922.717946817714</v>
+        <v>2922.717946817715</v>
       </c>
       <c r="Q32" t="n">
         <v>3107.727303993804</v>
@@ -6727,25 +6727,25 @@
         <v>3107.727303993804</v>
       </c>
       <c r="S32" t="n">
-        <v>3036.158297533348</v>
+        <v>3107.727303993804</v>
       </c>
       <c r="T32" t="n">
-        <v>2907.573752479433</v>
+        <v>2979.14275893989</v>
       </c>
       <c r="U32" t="n">
-        <v>2746.730429514018</v>
+        <v>2979.14275893989</v>
       </c>
       <c r="V32" t="n">
-        <v>2499.532903009976</v>
+        <v>2731.945232435847</v>
       </c>
       <c r="W32" t="n">
-        <v>2223.443150770703</v>
+        <v>2455.855480196574</v>
       </c>
       <c r="X32" t="n">
-        <v>2206.030822875131</v>
+        <v>2188.02506570901</v>
       </c>
       <c r="Y32" t="n">
-        <v>1904.449396588172</v>
+        <v>1886.443639422051</v>
       </c>
     </row>
     <row r="33">
@@ -6782,22 +6782,22 @@
         <v>62.15454607987608</v>
       </c>
       <c r="K33" t="n">
-        <v>382.0247409709041</v>
+        <v>62.15454607987608</v>
       </c>
       <c r="L33" t="n">
-        <v>865.767038191971</v>
+        <v>545.896843300943</v>
       </c>
       <c r="M33" t="n">
-        <v>1493.744318120955</v>
+        <v>1173.874123229927</v>
       </c>
       <c r="N33" t="n">
-        <v>2149.733362056046</v>
+        <v>1223.424163652914</v>
       </c>
       <c r="O33" t="n">
-        <v>2380.38256348989</v>
+        <v>1740.137536550438</v>
       </c>
       <c r="P33" t="n">
-        <v>2380.38256348989</v>
+        <v>2145.913877260978</v>
       </c>
       <c r="Q33" t="n">
         <v>2380.38256348989</v>
@@ -6858,19 +6858,19 @@
         <v>62.15454607987608</v>
       </c>
       <c r="J34" t="n">
-        <v>125.4494946262982</v>
+        <v>125.4494946262978</v>
       </c>
       <c r="K34" t="n">
-        <v>300.3841719365715</v>
+        <v>300.3841719365712</v>
       </c>
       <c r="L34" t="n">
-        <v>557.6335542733116</v>
+        <v>557.6335542733112</v>
       </c>
       <c r="M34" t="n">
-        <v>837.0523738063175</v>
+        <v>837.0523738063172</v>
       </c>
       <c r="N34" t="n">
-        <v>1113.366713059222</v>
+        <v>1113.366713059221</v>
       </c>
       <c r="O34" t="n">
         <v>1369.188237211978</v>
@@ -6913,10 +6913,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1828.021852009736</v>
+        <v>1321.732939290282</v>
       </c>
       <c r="C35" t="n">
-        <v>1529.755633305106</v>
+        <v>1239.223787314213</v>
       </c>
       <c r="D35" t="n">
         <v>1239.223787314213</v>
@@ -6940,7 +6940,7 @@
         <v>206.933055256244</v>
       </c>
       <c r="K35" t="n">
-        <v>566.1083535773134</v>
+        <v>566.1083535773132</v>
       </c>
       <c r="L35" t="n">
         <v>1059.668007272187</v>
@@ -6976,13 +6976,13 @@
         <v>2499.532903009976</v>
       </c>
       <c r="W35" t="n">
-        <v>2499.532903009976</v>
+        <v>2223.443150770703</v>
       </c>
       <c r="X35" t="n">
-        <v>2204.989580735472</v>
+        <v>1928.899828496199</v>
       </c>
       <c r="Y35" t="n">
-        <v>1903.408154448513</v>
+        <v>1627.318402209239</v>
       </c>
     </row>
     <row r="36">
@@ -7016,25 +7016,25 @@
         <v>62.15454607987608</v>
       </c>
       <c r="J36" t="n">
-        <v>175.3462027386184</v>
+        <v>62.15454607987608</v>
       </c>
       <c r="K36" t="n">
-        <v>175.3462027386184</v>
+        <v>382.0247409709041</v>
       </c>
       <c r="L36" t="n">
-        <v>659.0884999596854</v>
+        <v>865.767038191971</v>
       </c>
       <c r="M36" t="n">
-        <v>1207.680146657274</v>
+        <v>865.767038191971</v>
       </c>
       <c r="N36" t="n">
-        <v>1863.669190592366</v>
+        <v>1223.424163652914</v>
       </c>
       <c r="O36" t="n">
-        <v>2380.38256348989</v>
+        <v>1740.137536550438</v>
       </c>
       <c r="P36" t="n">
-        <v>2380.38256348989</v>
+        <v>2145.913877260978</v>
       </c>
       <c r="Q36" t="n">
         <v>2380.38256348989</v>
@@ -7104,28 +7104,28 @@
         <v>557.6335542733112</v>
       </c>
       <c r="M37" t="n">
-        <v>837.0523738063171</v>
+        <v>837.0523738063172</v>
       </c>
       <c r="N37" t="n">
-        <v>1113.366713059221</v>
+        <v>1113.366713059222</v>
       </c>
       <c r="O37" t="n">
-        <v>1369.188237211977</v>
+        <v>1369.188237211978</v>
       </c>
       <c r="P37" t="n">
-        <v>1582.167280286147</v>
+        <v>1582.167280286148</v>
       </c>
       <c r="Q37" t="n">
         <v>1678.667037520422</v>
       </c>
       <c r="R37" t="n">
-        <v>1649.706544591357</v>
+        <v>1649.706544591358</v>
       </c>
       <c r="S37" t="n">
-        <v>1541.811841536267</v>
+        <v>1541.811841536268</v>
       </c>
       <c r="T37" t="n">
-        <v>1401.005038613718</v>
+        <v>1401.005038613719</v>
       </c>
       <c r="U37" t="n">
         <v>1210.475567513379</v>
@@ -7134,10 +7134,10 @@
         <v>1039.405505126643</v>
       </c>
       <c r="W37" t="n">
-        <v>850.9843858502597</v>
+        <v>850.9843858502599</v>
       </c>
       <c r="X37" t="n">
-        <v>711.8133464256822</v>
+        <v>711.8133464256823</v>
       </c>
       <c r="Y37" t="n">
         <v>583.6105680347649</v>
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1321.732939290282</v>
+        <v>1682.729813770067</v>
       </c>
       <c r="C38" t="n">
-        <v>1023.466720585652</v>
+        <v>1384.463595065437</v>
       </c>
       <c r="D38" t="n">
-        <v>732.9348745947586</v>
+        <v>1093.931749074544</v>
       </c>
       <c r="E38" t="n">
-        <v>425.2606325037425</v>
+        <v>786.2575069835279</v>
       </c>
       <c r="F38" t="n">
-        <v>425.2606325037425</v>
+        <v>464.2723513059451</v>
       </c>
       <c r="G38" t="n">
-        <v>291.3124644203975</v>
+        <v>146.0204261807289</v>
       </c>
       <c r="H38" t="n">
         <v>62.15454607987608</v>
@@ -7174,10 +7174,10 @@
         <v>62.15454607987608</v>
       </c>
       <c r="J38" t="n">
-        <v>206.933055256244</v>
+        <v>206.9330552562442</v>
       </c>
       <c r="K38" t="n">
-        <v>566.1083535773134</v>
+        <v>566.1083535773132</v>
       </c>
       <c r="L38" t="n">
         <v>1059.668007272187</v>
@@ -7201,25 +7201,25 @@
         <v>3107.727303993804</v>
       </c>
       <c r="S38" t="n">
-        <v>3036.158297533348</v>
+        <v>3107.727303993804</v>
       </c>
       <c r="T38" t="n">
-        <v>2907.573752479433</v>
+        <v>3107.727303993804</v>
       </c>
       <c r="U38" t="n">
-        <v>2746.730429514018</v>
+        <v>3107.727303993804</v>
       </c>
       <c r="V38" t="n">
-        <v>2499.532903009976</v>
+        <v>2860.529777489761</v>
       </c>
       <c r="W38" t="n">
-        <v>2223.443150770703</v>
+        <v>2584.440025250488</v>
       </c>
       <c r="X38" t="n">
-        <v>1928.899828496199</v>
+        <v>2289.896702975984</v>
       </c>
       <c r="Y38" t="n">
-        <v>1627.318402209239</v>
+        <v>1988.315276689025</v>
       </c>
     </row>
     <row r="39">
@@ -7259,19 +7259,19 @@
         <v>382.0247409709041</v>
       </c>
       <c r="L39" t="n">
-        <v>382.0247409709041</v>
+        <v>865.767038191971</v>
       </c>
       <c r="M39" t="n">
-        <v>801.9038059467341</v>
+        <v>865.767038191971</v>
       </c>
       <c r="N39" t="n">
-        <v>1457.892849881825</v>
+        <v>1223.424163652914</v>
       </c>
       <c r="O39" t="n">
-        <v>1974.60622277935</v>
+        <v>1740.137536550438</v>
       </c>
       <c r="P39" t="n">
-        <v>2380.38256348989</v>
+        <v>2145.913877260978</v>
       </c>
       <c r="Q39" t="n">
         <v>2380.38256348989</v>
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>493.311832135903</v>
+        <v>493.3118321359028</v>
       </c>
       <c r="C40" t="n">
-        <v>418.0159969943315</v>
+        <v>418.0159969943313</v>
       </c>
       <c r="D40" t="n">
-        <v>357.2921666892856</v>
+        <v>357.2921666892854</v>
       </c>
       <c r="E40" t="n">
-        <v>296.6426373409274</v>
+        <v>296.6426373409272</v>
       </c>
       <c r="F40" t="n">
-        <v>234.2259853463397</v>
+        <v>234.2259853463395</v>
       </c>
       <c r="G40" t="n">
         <v>160.8819084357683</v>
@@ -7359,10 +7359,10 @@
         <v>1649.706544591358</v>
       </c>
       <c r="S40" t="n">
-        <v>1541.811841536268</v>
+        <v>1541.811841536267</v>
       </c>
       <c r="T40" t="n">
-        <v>1401.005038613719</v>
+        <v>1401.005038613718</v>
       </c>
       <c r="U40" t="n">
         <v>1210.475567513379</v>
@@ -7371,13 +7371,13 @@
         <v>1039.405505126643</v>
       </c>
       <c r="W40" t="n">
-        <v>850.9843858502599</v>
+        <v>850.9843858502597</v>
       </c>
       <c r="X40" t="n">
-        <v>711.8133464256823</v>
+        <v>711.8133464256821</v>
       </c>
       <c r="Y40" t="n">
-        <v>583.6105680347649</v>
+        <v>583.6105680347647</v>
       </c>
     </row>
     <row r="41">
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2202.651496365027</v>
+        <v>1826.246672124768</v>
       </c>
       <c r="C41" t="n">
-        <v>1809.475994867958</v>
+        <v>1433.071170627699</v>
       </c>
       <c r="D41" t="n">
-        <v>1424.034866084626</v>
+        <v>1433.071170627699</v>
       </c>
       <c r="E41" t="n">
-        <v>1021.45134120117</v>
+        <v>1030.487645744243</v>
       </c>
       <c r="F41" t="n">
-        <v>604.5569027311479</v>
+        <v>613.5932072742211</v>
       </c>
       <c r="G41" t="n">
-        <v>386.2217472128369</v>
+        <v>200.4319993565656</v>
       </c>
       <c r="H41" t="n">
-        <v>62.15454607987608</v>
+        <v>200.4319993565656</v>
       </c>
       <c r="I41" t="n">
         <v>62.15454607987608</v>
@@ -7414,7 +7414,7 @@
         <v>206.9330552562442</v>
       </c>
       <c r="K41" t="n">
-        <v>566.108353577313</v>
+        <v>566.1083535773133</v>
       </c>
       <c r="L41" t="n">
         <v>1059.668007272187</v>
@@ -7435,28 +7435,28 @@
         <v>3107.727303993804</v>
       </c>
       <c r="R41" t="n">
-        <v>3107.727303993804</v>
+        <v>3069.831604352372</v>
       </c>
       <c r="S41" t="n">
-        <v>2941.249014740908</v>
+        <v>3069.831604352372</v>
       </c>
       <c r="T41" t="n">
-        <v>2941.249014740908</v>
+        <v>3069.831604352372</v>
       </c>
       <c r="U41" t="n">
-        <v>2941.249014740908</v>
+        <v>3069.831604352372</v>
       </c>
       <c r="V41" t="n">
-        <v>2599.142205444427</v>
+        <v>3012.684731982507</v>
       </c>
       <c r="W41" t="n">
-        <v>2599.142205444427</v>
+        <v>3012.684731982507</v>
       </c>
       <c r="X41" t="n">
-        <v>2599.142205444427</v>
+        <v>2623.232126915564</v>
       </c>
       <c r="Y41" t="n">
-        <v>2202.651496365027</v>
+        <v>2226.741417836165</v>
       </c>
     </row>
     <row r="42">
@@ -7499,16 +7499,16 @@
         <v>865.767038191971</v>
       </c>
       <c r="M42" t="n">
-        <v>1457.892849881825</v>
+        <v>865.767038191971</v>
       </c>
       <c r="N42" t="n">
-        <v>1457.892849881825</v>
+        <v>1223.424163652914</v>
       </c>
       <c r="O42" t="n">
-        <v>1974.60622277935</v>
+        <v>1740.137536550438</v>
       </c>
       <c r="P42" t="n">
-        <v>2380.38256348989</v>
+        <v>2145.913877260978</v>
       </c>
       <c r="Q42" t="n">
         <v>2380.38256348989</v>
@@ -7545,16 +7545,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>219.4804808669031</v>
+        <v>62.15454607987608</v>
       </c>
       <c r="C43" t="n">
-        <v>219.4804808669031</v>
+        <v>62.15454607987608</v>
       </c>
       <c r="D43" t="n">
-        <v>219.4804808669031</v>
+        <v>62.15454607987608</v>
       </c>
       <c r="E43" t="n">
-        <v>219.4804808669031</v>
+        <v>62.15454607987608</v>
       </c>
       <c r="F43" t="n">
         <v>62.15454607987608</v>
@@ -7578,43 +7578,43 @@
         <v>308.2974295971499</v>
       </c>
       <c r="M43" t="n">
-        <v>494.6956610652861</v>
+        <v>494.695661065286</v>
       </c>
       <c r="N43" t="n">
-        <v>677.9894122533206</v>
+        <v>677.9894122533204</v>
       </c>
       <c r="O43" t="n">
-        <v>840.7903483412069</v>
+        <v>840.7903483412068</v>
       </c>
       <c r="P43" t="n">
-        <v>960.7488033505072</v>
+        <v>960.748803350507</v>
       </c>
       <c r="Q43" t="n">
-        <v>964.2279725199116</v>
+        <v>964.2279725199115</v>
       </c>
       <c r="R43" t="n">
-        <v>964.2279725199116</v>
+        <v>964.2279725199115</v>
       </c>
       <c r="S43" t="n">
-        <v>964.2279725199116</v>
+        <v>964.2279725199115</v>
       </c>
       <c r="T43" t="n">
-        <v>728.5118868049234</v>
+        <v>865.0040242584939</v>
       </c>
       <c r="U43" t="n">
-        <v>728.5118868049234</v>
+        <v>579.5652703657154</v>
       </c>
       <c r="V43" t="n">
-        <v>462.5325416257476</v>
+        <v>579.5652703657154</v>
       </c>
       <c r="W43" t="n">
-        <v>219.4804808669031</v>
+        <v>296.234868296893</v>
       </c>
       <c r="X43" t="n">
-        <v>219.4804808669031</v>
+        <v>62.15454607987608</v>
       </c>
       <c r="Y43" t="n">
-        <v>219.4804808669031</v>
+        <v>62.15454607987608</v>
       </c>
     </row>
     <row r="44">
@@ -7624,34 +7624,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1595.141981511017</v>
+        <v>1716.915255241737</v>
       </c>
       <c r="C44" t="n">
-        <v>1201.966480013948</v>
+        <v>1716.915255241737</v>
       </c>
       <c r="D44" t="n">
-        <v>1201.966480013948</v>
+        <v>1716.915255241737</v>
       </c>
       <c r="E44" t="n">
-        <v>799.3829551304923</v>
+        <v>1314.331730358281</v>
       </c>
       <c r="F44" t="n">
-        <v>799.3829551304923</v>
+        <v>897.4372918882592</v>
       </c>
       <c r="G44" t="n">
-        <v>386.2217472128369</v>
+        <v>484.2760839706037</v>
       </c>
       <c r="H44" t="n">
-        <v>62.15454607987608</v>
+        <v>160.2088828376429</v>
       </c>
       <c r="I44" t="n">
         <v>62.15454607987608</v>
       </c>
       <c r="J44" t="n">
-        <v>206.933055256244</v>
+        <v>206.9330552562442</v>
       </c>
       <c r="K44" t="n">
-        <v>566.1083535773132</v>
+        <v>566.1083535773134</v>
       </c>
       <c r="L44" t="n">
         <v>1059.668007272187</v>
@@ -7672,28 +7672,28 @@
         <v>3107.727303993804</v>
       </c>
       <c r="R44" t="n">
-        <v>3107.727303993804</v>
+        <v>3069.831604352372</v>
       </c>
       <c r="S44" t="n">
-        <v>3107.727303993804</v>
+        <v>2903.353315099476</v>
       </c>
       <c r="T44" t="n">
-        <v>2884.233476147449</v>
+        <v>2903.353315099476</v>
       </c>
       <c r="U44" t="n">
-        <v>2781.580041368757</v>
+        <v>2903.353315099476</v>
       </c>
       <c r="V44" t="n">
-        <v>2781.580041368757</v>
+        <v>2903.353315099476</v>
       </c>
       <c r="W44" t="n">
-        <v>2781.580041368757</v>
+        <v>2903.353315099476</v>
       </c>
       <c r="X44" t="n">
-        <v>2392.127436301813</v>
+        <v>2513.900710032533</v>
       </c>
       <c r="Y44" t="n">
-        <v>1995.636727222414</v>
+        <v>2117.410000953134</v>
       </c>
     </row>
     <row r="45">
@@ -7727,25 +7727,25 @@
         <v>62.15454607987608</v>
       </c>
       <c r="J45" t="n">
-        <v>62.15454607987608</v>
+        <v>175.3462027386184</v>
       </c>
       <c r="K45" t="n">
-        <v>62.15454607987608</v>
+        <v>495.2163976296464</v>
       </c>
       <c r="L45" t="n">
-        <v>173.9265260177506</v>
+        <v>978.9586948507133</v>
       </c>
       <c r="M45" t="n">
-        <v>801.9038059467341</v>
+        <v>978.9586948507133</v>
       </c>
       <c r="N45" t="n">
-        <v>1457.892849881825</v>
+        <v>1223.424163652914</v>
       </c>
       <c r="O45" t="n">
-        <v>1974.60622277935</v>
+        <v>1740.137536550438</v>
       </c>
       <c r="P45" t="n">
-        <v>2380.38256348989</v>
+        <v>2145.913877260978</v>
       </c>
       <c r="Q45" t="n">
         <v>2380.38256348989</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>223.7051870507156</v>
+        <v>365.4332129634039</v>
       </c>
       <c r="C46" t="n">
-        <v>219.4804808669031</v>
+        <v>195.2280950293931</v>
       </c>
       <c r="D46" t="n">
-        <v>219.4804808669031</v>
+        <v>195.2280950293931</v>
       </c>
       <c r="E46" t="n">
-        <v>219.4804808669031</v>
+        <v>195.2280950293931</v>
       </c>
       <c r="F46" t="n">
-        <v>62.15454607987608</v>
+        <v>195.2280950293931</v>
       </c>
       <c r="G46" t="n">
-        <v>62.15454607987608</v>
+        <v>195.2280950293931</v>
       </c>
       <c r="H46" t="n">
-        <v>62.15454607987608</v>
+        <v>195.2280950293931</v>
       </c>
       <c r="I46" t="n">
         <v>62.15454607987608</v>
@@ -7815,43 +7815,43 @@
         <v>308.2974295971499</v>
       </c>
       <c r="M46" t="n">
-        <v>494.6956610652861</v>
+        <v>494.695661065286</v>
       </c>
       <c r="N46" t="n">
-        <v>677.9894122533206</v>
+        <v>677.9894122533204</v>
       </c>
       <c r="O46" t="n">
-        <v>840.7903483412069</v>
+        <v>840.7903483412068</v>
       </c>
       <c r="P46" t="n">
-        <v>960.7488033505072</v>
+        <v>960.748803350507</v>
       </c>
       <c r="Q46" t="n">
-        <v>964.2279725199116</v>
+        <v>964.2279725199115</v>
       </c>
       <c r="R46" t="n">
-        <v>964.2279725199116</v>
+        <v>964.2279725199115</v>
       </c>
       <c r="S46" t="n">
-        <v>964.2279725199116</v>
+        <v>964.2279725199115</v>
       </c>
       <c r="T46" t="n">
-        <v>964.2279725199116</v>
+        <v>964.2279725199115</v>
       </c>
       <c r="U46" t="n">
-        <v>964.2279725199116</v>
+        <v>914.742960211402</v>
       </c>
       <c r="V46" t="n">
-        <v>964.2279725199116</v>
+        <v>648.7636150322262</v>
       </c>
       <c r="W46" t="n">
-        <v>680.8975704510892</v>
+        <v>365.4332129634039</v>
       </c>
       <c r="X46" t="n">
-        <v>446.8172482340723</v>
+        <v>365.4332129634039</v>
       </c>
       <c r="Y46" t="n">
-        <v>223.7051870507156</v>
+        <v>365.4332129634039</v>
       </c>
     </row>
   </sheetData>
@@ -8066,13 +8066,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M3" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N3" t="n">
-        <v>630.6030013529515</v>
+        <v>742.9781195708306</v>
       </c>
       <c r="O3" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P3" t="n">
         <v>87.08336481931465</v>
@@ -8236,7 +8236,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q5" t="n">
-        <v>331.2113854294514</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R5" t="n">
         <v>102.5176150018526</v>
@@ -8294,22 +8294,22 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J6" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K6" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L6" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M6" t="n">
-        <v>688.0608343844987</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N6" t="n">
-        <v>747.7741039759435</v>
+        <v>447.5171231095475</v>
       </c>
       <c r="O6" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P6" t="n">
         <v>496.801919078302</v>
@@ -8531,28 +8531,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J9" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K9" t="n">
-        <v>124.646981443537</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L9" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M9" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N9" t="n">
-        <v>747.7741039759435</v>
+        <v>510.5662141339224</v>
       </c>
       <c r="O9" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P9" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R9" t="n">
         <v>71.01380490566048</v>
@@ -8777,7 +8777,7 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M12" t="n">
-        <v>350.772306234654</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N12" t="n">
         <v>747.7741039759435</v>
@@ -8786,7 +8786,7 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P12" t="n">
-        <v>496.801919078302</v>
+        <v>121.0743258629556</v>
       </c>
       <c r="Q12" t="n">
         <v>90.88351207104404</v>
@@ -9014,19 +9014,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M15" t="n">
-        <v>726.4998994499999</v>
+        <v>453.4492383711708</v>
       </c>
       <c r="N15" t="n">
-        <v>747.7741039759435</v>
+        <v>85.15890808191187</v>
       </c>
       <c r="O15" t="n">
-        <v>325.4715095225263</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P15" t="n">
-        <v>86.92682745149347</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q15" t="n">
-        <v>90.88351207104404</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R15" t="n">
         <v>71.01380490566048</v>
@@ -9245,16 +9245,16 @@
         <v>82.36700840503539</v>
       </c>
       <c r="K18" t="n">
-        <v>202.3655526152252</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L18" t="n">
-        <v>89.88235562181355</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M18" t="n">
-        <v>726.4998994499999</v>
+        <v>453.4492383711708</v>
       </c>
       <c r="N18" t="n">
-        <v>747.7741039759435</v>
+        <v>85.15890808191187</v>
       </c>
       <c r="O18" t="n">
         <v>614.4252180716981</v>
@@ -9263,7 +9263,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q18" t="n">
-        <v>90.88351207104404</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R18" t="n">
         <v>71.01380490566048</v>
@@ -9479,16 +9479,16 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J21" t="n">
-        <v>82.36700840503539</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K21" t="n">
-        <v>89.46456277898835</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L21" t="n">
-        <v>578.5109386733963</v>
+        <v>89.88235562181355</v>
       </c>
       <c r="M21" t="n">
-        <v>726.4998994499999</v>
+        <v>165.1276188027196</v>
       </c>
       <c r="N21" t="n">
         <v>747.7741039759435</v>
@@ -9497,10 +9497,10 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P21" t="n">
-        <v>121.0743258629556</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q21" t="n">
-        <v>90.88351207104404</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R21" t="n">
         <v>71.01380490566048</v>
@@ -9719,25 +9719,25 @@
         <v>82.36700840503539</v>
       </c>
       <c r="K24" t="n">
-        <v>89.46456277898835</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L24" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M24" t="n">
-        <v>726.4998994499999</v>
+        <v>453.4492383711708</v>
       </c>
       <c r="N24" t="n">
-        <v>747.7741039759435</v>
+        <v>85.15890808191187</v>
       </c>
       <c r="O24" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P24" t="n">
-        <v>121.0743258629556</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q24" t="n">
-        <v>90.88351207104404</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R24" t="n">
         <v>71.01380490566048</v>
@@ -9956,16 +9956,16 @@
         <v>82.36700840503539</v>
       </c>
       <c r="K27" t="n">
-        <v>89.46456277898835</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L27" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
-        <v>350.772306234654</v>
+        <v>453.4492383711708</v>
       </c>
       <c r="N27" t="n">
-        <v>747.7741039759435</v>
+        <v>85.15890808191187</v>
       </c>
       <c r="O27" t="n">
         <v>614.4252180716981</v>
@@ -9974,7 +9974,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q27" t="n">
-        <v>90.88351207104404</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R27" t="n">
         <v>71.01380490566048</v>
@@ -10193,25 +10193,25 @@
         <v>82.36700840503539</v>
       </c>
       <c r="K30" t="n">
-        <v>89.46456277898835</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L30" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
-        <v>726.4998994499999</v>
+        <v>92.17941467324893</v>
       </c>
       <c r="N30" t="n">
-        <v>747.7741039759435</v>
+        <v>446.4287317798338</v>
       </c>
       <c r="O30" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P30" t="n">
-        <v>121.0743258629561</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q30" t="n">
-        <v>90.88351207104404</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R30" t="n">
         <v>71.01380490566048</v>
@@ -10430,7 +10430,7 @@
         <v>82.36700840503539</v>
       </c>
       <c r="K33" t="n">
-        <v>412.5657697396227</v>
+        <v>89.46456277898835</v>
       </c>
       <c r="L33" t="n">
         <v>578.5109386733963</v>
@@ -10439,16 +10439,16 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N33" t="n">
-        <v>747.7741039759435</v>
+        <v>135.2094539637169</v>
       </c>
       <c r="O33" t="n">
-        <v>325.4715095225263</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P33" t="n">
-        <v>86.92682745149347</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q33" t="n">
-        <v>90.88351207104404</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R33" t="n">
         <v>71.01380490566048</v>
@@ -10664,28 +10664,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J36" t="n">
-        <v>196.7020151310378</v>
+        <v>82.36700840503539</v>
       </c>
       <c r="K36" t="n">
-        <v>89.46456277898835</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L36" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M36" t="n">
-        <v>646.3123911354602</v>
+        <v>92.17941467324893</v>
       </c>
       <c r="N36" t="n">
-        <v>747.7741039759435</v>
+        <v>446.4287317798338</v>
       </c>
       <c r="O36" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P36" t="n">
-        <v>86.92682745149347</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q36" t="n">
-        <v>90.88351207104404</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R36" t="n">
         <v>71.01380490566048</v>
@@ -10907,13 +10907,13 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L39" t="n">
-        <v>89.88235562181355</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M39" t="n">
-        <v>516.2996823256025</v>
+        <v>92.17941467324893</v>
       </c>
       <c r="N39" t="n">
-        <v>747.7741039759435</v>
+        <v>446.4287317798338</v>
       </c>
       <c r="O39" t="n">
         <v>614.4252180716981</v>
@@ -10922,7 +10922,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q39" t="n">
-        <v>90.88351207104404</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R39" t="n">
         <v>71.01380490566048</v>
@@ -11147,10 +11147,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M42" t="n">
-        <v>690.2862951680514</v>
+        <v>92.17941467324893</v>
       </c>
       <c r="N42" t="n">
-        <v>85.15890808191187</v>
+        <v>446.4287317798338</v>
       </c>
       <c r="O42" t="n">
         <v>614.4252180716981</v>
@@ -11159,7 +11159,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q42" t="n">
-        <v>90.88351207104404</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R42" t="n">
         <v>71.01380490566048</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>263.7907196684351</v>
+        <v>263.7907196684353</v>
       </c>
       <c r="K44" t="n">
         <v>505.666843611017</v>
@@ -11317,7 +11317,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q44" t="n">
-        <v>331.2113854294514</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R44" t="n">
         <v>102.5176150018526</v>
@@ -11375,19 +11375,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J45" t="n">
-        <v>82.36700840503539</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K45" t="n">
-        <v>89.46456277898835</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L45" t="n">
-        <v>202.7833454580504</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M45" t="n">
-        <v>726.4998994499999</v>
+        <v>92.17941467324893</v>
       </c>
       <c r="N45" t="n">
-        <v>747.7741039759435</v>
+        <v>332.0937250538315</v>
       </c>
       <c r="O45" t="n">
         <v>614.4252180716981</v>
@@ -11396,7 +11396,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q45" t="n">
-        <v>90.88351207104404</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R45" t="n">
         <v>71.01380490566048</v>
@@ -23260,7 +23260,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>274.3596844351433</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23275,10 +23275,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>226.8663391571162</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>42.93448877940764</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23311,16 +23311,16 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>127.2986996033755</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>159.2348897357606</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>244.7255512390018</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>12.9013717935286</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23500,22 +23500,22 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>55.16201986807695</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>318.7653041208071</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>226.8663391571162</v>
       </c>
       <c r="I14" t="n">
-        <v>42.93448877940764</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23548,16 +23548,16 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>127.2986996033755</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>244.7255512390018</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>72.56862197554872</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>302.529608289768</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -23740,10 +23740,10 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>241.6309040818991</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>143.839117857272</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -23752,7 +23752,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>42.93448877940764</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,13 +23782,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>70.85331639585155</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>127.2986996033755</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>159.2348897357606</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23974,13 +23974,13 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>287.626527530984</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>256.5339848406832</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>318.7653041208071</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -24019,10 +24019,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>70.85331639585155</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>127.2986996033755</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -24034,7 +24034,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>27.24319225163333</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24205,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>302.529608289768</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -24223,7 +24223,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>143.8391178572719</v>
       </c>
       <c r="I23" t="n">
         <v>42.93448877940764</v>
@@ -24256,13 +24256,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>70.85331639585155</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>127.2986996033755</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>159.2348897357606</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -24271,7 +24271,7 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>198.6964153024916</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24445,7 +24445,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>227.8971688753787</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -24460,10 +24460,10 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>226.8663391571162</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>42.93448877940767</v>
+        <v>42.93448877940764</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24493,19 +24493,19 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.85331639585158</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>127.2986996033755</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>76.20766843591633</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>273.3288547168805</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -24679,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>302.529608289768</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -24700,7 +24700,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>42.93448877940764</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24730,19 +24730,19 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>70.85331639585155</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>127.2986996033755</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>159.2348897357606</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>241.630904081899</v>
+        <v>143.8391178572714</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -24922,7 +24922,7 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>287.626527530984</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -24934,10 +24934,10 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>226.8663391571162</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>42.93448877940767</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24967,13 +24967,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>70.85331639585158</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>159.2348897357606</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -24982,7 +24982,7 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>274.3596844351433</v>
+        <v>26.44577870907068</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25153,13 +25153,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>227.8971688753788</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>213.5994960612757</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>287.626527530984</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -25216,7 +25216,7 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>273.3288547168805</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -25402,13 +25402,13 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>318.7653041208071</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>182.4607194714524</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>143.8391178572719</v>
       </c>
       <c r="I38" t="n">
         <v>42.93448877940767</v>
@@ -25441,13 +25441,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>70.85331639585158</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>127.2986996033755</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>159.2348897357606</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -25627,13 +25627,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25642,13 +25642,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>192.8777918753509</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>320.8265291216312</v>
       </c>
       <c r="I41" t="n">
-        <v>136.8946787439226</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25675,10 +25675,10 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>37.51674264501764</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>164.8135063603665</v>
       </c>
       <c r="T41" t="n">
         <v>221.2588895678904</v>
@@ -25687,13 +25687,13 @@
         <v>253.1950797002755</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>282.110337557351</v>
       </c>
       <c r="W41" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X41" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25797,7 +25797,7 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G43" t="n">
         <v>166.5708261059806</v>
@@ -25839,19 +25839,19 @@
         <v>200.7759459890547</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>135.127216079035</v>
       </c>
       <c r="U43" t="n">
-        <v>282.5843663538507</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W43" t="n">
-        <v>39.87555789687809</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>220.8809405715231</v>
@@ -25867,7 +25867,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D44" t="n">
         <v>381.5867174954989</v>
@@ -25876,7 +25876,7 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -25885,7 +25885,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>136.8946787439226</v>
+        <v>39.8208853537334</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25912,16 +25912,16 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>37.51674264501764</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>164.8135063603665</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>221.2588895678904</v>
       </c>
       <c r="U44" t="n">
-        <v>151.5681792693696</v>
+        <v>253.1950797002755</v>
       </c>
       <c r="V44" t="n">
         <v>338.6857412035168</v>
@@ -26025,7 +26025,7 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C46" t="n">
-        <v>164.3206076326963</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>154.0767819665104</v>
@@ -26034,7 +26034,7 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G46" t="n">
         <v>166.5708261059806</v>
@@ -26043,7 +26043,7 @@
         <v>153.9176552013413</v>
       </c>
       <c r="I46" t="n">
-        <v>131.7428134600218</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>30.02589850348282</v>
@@ -26079,19 +26079,19 @@
         <v>233.3589248578384</v>
       </c>
       <c r="U46" t="n">
-        <v>282.5843663538507</v>
+        <v>233.5942041684262</v>
       </c>
       <c r="V46" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>623115.0190614425</v>
+        <v>623115.0190614426</v>
       </c>
     </row>
     <row r="6">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>623115.0190614425</v>
+        <v>623115.0190614426</v>
       </c>
     </row>
     <row r="12">
@@ -26316,16 +26316,16 @@
         <v>613129.4055174132</v>
       </c>
       <c r="C2" t="n">
-        <v>613129.4055174134</v>
+        <v>613129.4055174132</v>
       </c>
       <c r="D2" t="n">
-        <v>613129.4055174133</v>
+        <v>613129.4055174135</v>
       </c>
       <c r="E2" t="n">
-        <v>576311.5052503454</v>
+        <v>576311.5052503453</v>
       </c>
       <c r="F2" t="n">
-        <v>576311.5052503456</v>
+        <v>576311.5052503468</v>
       </c>
       <c r="G2" t="n">
         <v>576311.5052503468</v>
@@ -26334,28 +26334,28 @@
         <v>576311.5052503468</v>
       </c>
       <c r="I2" t="n">
-        <v>576311.5052503468</v>
+        <v>576311.5052503466</v>
       </c>
       <c r="J2" t="n">
         <v>576311.5052503456</v>
       </c>
       <c r="K2" t="n">
-        <v>576311.5052503454</v>
+        <v>576311.5052503468</v>
       </c>
       <c r="L2" t="n">
         <v>576311.5052503468</v>
       </c>
       <c r="M2" t="n">
-        <v>576311.5052503466</v>
+        <v>576311.5052503468</v>
       </c>
       <c r="N2" t="n">
-        <v>576311.5052503467</v>
+        <v>576311.5052503468</v>
       </c>
       <c r="O2" t="n">
-        <v>432702.9799573587</v>
+        <v>432702.979957359</v>
       </c>
       <c r="P2" t="n">
-        <v>432702.9799573593</v>
+        <v>432702.979957359</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>75606.52981275668</v>
+        <v>75606.52981275666</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>110.3300114129287</v>
+        <v>110.3300114128606</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26456,7 +26456,7 @@
         <v>110106.3704518428</v>
       </c>
       <c r="O4" t="n">
-        <v>13451.88282212328</v>
+        <v>13451.88282212329</v>
       </c>
       <c r="P4" t="n">
         <v>13451.88282212329</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>137366.1761682502</v>
+        <v>137366.1761682501</v>
       </c>
       <c r="C6" t="n">
-        <v>397585.5315880792</v>
+        <v>397585.5315880789</v>
       </c>
       <c r="D6" t="n">
-        <v>397585.5315880791</v>
+        <v>397585.5315880793</v>
       </c>
       <c r="E6" t="n">
-        <v>335453.7024598708</v>
+        <v>335345.4145179087</v>
       </c>
       <c r="F6" t="n">
-        <v>411060.2322726276</v>
+        <v>410951.9443306669</v>
       </c>
       <c r="G6" t="n">
-        <v>411060.2322726289</v>
+        <v>410951.9443306669</v>
       </c>
       <c r="H6" t="n">
-        <v>411060.2322726289</v>
+        <v>410951.9443306669</v>
       </c>
       <c r="I6" t="n">
-        <v>411060.2322726289</v>
+        <v>410951.9443306667</v>
       </c>
       <c r="J6" t="n">
-        <v>132728.3671883207</v>
+        <v>132620.0792463587</v>
       </c>
       <c r="K6" t="n">
-        <v>411060.2322726275</v>
+        <v>410951.9443306669</v>
       </c>
       <c r="L6" t="n">
-        <v>411060.2322726289</v>
+        <v>410951.944330667</v>
       </c>
       <c r="M6" t="n">
-        <v>410949.9022612157</v>
+        <v>410841.6143192541</v>
       </c>
       <c r="N6" t="n">
-        <v>411060.2322726288</v>
+        <v>410951.944330667</v>
       </c>
       <c r="O6" t="n">
-        <v>372005.3338194871</v>
+        <v>371474.6678619579</v>
       </c>
       <c r="P6" t="n">
-        <v>372005.3338194877</v>
+        <v>371474.6678619578</v>
       </c>
     </row>
   </sheetData>
@@ -26709,10 +26709,10 @@
         <v>93.96018996451495</v>
       </c>
       <c r="J2" t="n">
-        <v>93.96018996451492</v>
+        <v>93.96018996451495</v>
       </c>
       <c r="K2" t="n">
-        <v>93.96018996451492</v>
+        <v>93.96018996451495</v>
       </c>
       <c r="L2" t="n">
         <v>93.96018996451492</v>
@@ -26749,37 +26749,37 @@
         <v>0.3811144514917062</v>
       </c>
       <c r="F3" t="n">
-        <v>0.3811144514917116</v>
+        <v>0.3811144514917062</v>
       </c>
       <c r="G3" t="n">
-        <v>0.3811144514917116</v>
+        <v>0.3811144514917023</v>
       </c>
       <c r="H3" t="n">
-        <v>0.3811144514917116</v>
+        <v>0.3811144514917023</v>
       </c>
       <c r="I3" t="n">
-        <v>0.3811144514917116</v>
+        <v>0.3811144514917023</v>
       </c>
       <c r="J3" t="n">
-        <v>0.3811144514917116</v>
+        <v>0.3811144514917023</v>
       </c>
       <c r="K3" t="n">
-        <v>0.3811144514917116</v>
+        <v>0.3811144514917023</v>
       </c>
       <c r="L3" t="n">
-        <v>0.3811144514917116</v>
+        <v>0.3811144514917023</v>
       </c>
       <c r="M3" t="n">
-        <v>0.3811144514917116</v>
+        <v>0.3811144514917023</v>
       </c>
       <c r="N3" t="n">
-        <v>0.3811144514917116</v>
+        <v>0.3811144514917023</v>
       </c>
       <c r="O3" t="n">
-        <v>0.3811144514917116</v>
+        <v>0.3811144514917061</v>
       </c>
       <c r="P3" t="n">
-        <v>0.3811144514917116</v>
+        <v>0.3811144514917061</v>
       </c>
     </row>
     <row r="4">
@@ -26819,7 +26819,7 @@
         <v>776.9318259984509</v>
       </c>
       <c r="L4" t="n">
-        <v>776.9318259984509</v>
+        <v>776.931825998451</v>
       </c>
       <c r="M4" t="n">
         <v>776.9318259984509</v>
@@ -26931,7 +26931,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>93.96018996451492</v>
+        <v>93.96018996451495</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4427296970068713</v>
+        <v>0.4427296970068255</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0.4427296970069849</v>
+        <v>0.4427296970067118</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>93.96018996451492</v>
+        <v>93.96018996451495</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0.4427296970068713</v>
+        <v>0.4427296970068255</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>30.80739126955882</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27396,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27426,22 +27426,22 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
         <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>338.6857412035168</v>
+        <v>60.87001400254576</v>
       </c>
       <c r="W2" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27542,10 +27542,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>155.7526754391568</v>
@@ -27554,7 +27554,7 @@
         <v>166.5715133615489</v>
       </c>
       <c r="H4" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>131.7634811092929</v>
@@ -27590,19 +27590,19 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
-        <v>55.33633131988344</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>233.1333566747855</v>
       </c>
       <c r="W4" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X4" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>220.8809405715231</v>
@@ -27621,10 +27621,10 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>287.688261005131</v>
       </c>
       <c r="E5" t="n">
-        <v>371.4441747745852</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27636,7 +27636,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>221.2655964161775</v>
@@ -27681,7 +27681,7 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
         <v>392.5258019886049</v>
@@ -27776,7 +27776,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>168.5030667546707</v>
+        <v>33.83178343962908</v>
       </c>
       <c r="D7" t="n">
         <v>154.0767819665104</v>
@@ -27797,7 +27797,7 @@
         <v>131.7634811092929</v>
       </c>
       <c r="J7" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,10 +27821,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>233.3618613134482</v>
@@ -27836,10 +27836,10 @@
         <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
-        <v>24.04094380275541</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27864,13 +27864,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>99.2089178224831</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27900,10 +27900,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>221.2655964161775</v>
@@ -27918,10 +27918,10 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>224.5574566382954</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="9">
@@ -28010,25 +28010,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C10" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D10" t="n">
-        <v>75.25134650297788</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I10" t="n">
         <v>131.7634811092929</v>
@@ -28067,13 +28067,13 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U10" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>280.4970980481341</v>
+        <v>89.72117673905609</v>
       </c>
       <c r="X10" t="n">
         <v>231.7395189948467</v>
@@ -29228,7 +29228,7 @@
         <v>93.96018996451495</v>
       </c>
       <c r="M25" t="n">
-        <v>93.96018996451502</v>
+        <v>93.96018996451495</v>
       </c>
       <c r="N25" t="n">
         <v>93.96018996451495</v>
@@ -29237,7 +29237,7 @@
         <v>93.96018996451495</v>
       </c>
       <c r="P25" t="n">
-        <v>93.96018996451495</v>
+        <v>93.96018996451521</v>
       </c>
       <c r="Q25" t="n">
         <v>93.96018996451495</v>
@@ -29274,28 +29274,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>93.96018996451492</v>
+        <v>93.96018996451495</v>
       </c>
       <c r="C26" t="n">
-        <v>93.96018996451492</v>
+        <v>93.96018996451495</v>
       </c>
       <c r="D26" t="n">
-        <v>93.96018996451492</v>
+        <v>93.96018996451495</v>
       </c>
       <c r="E26" t="n">
-        <v>93.96018996451492</v>
+        <v>93.96018996451495</v>
       </c>
       <c r="F26" t="n">
-        <v>93.96018996451492</v>
+        <v>93.96018996451495</v>
       </c>
       <c r="G26" t="n">
-        <v>93.96018996451492</v>
+        <v>93.96018996451495</v>
       </c>
       <c r="H26" t="n">
-        <v>93.96018996451492</v>
+        <v>93.96018996451495</v>
       </c>
       <c r="I26" t="n">
-        <v>93.96018996451492</v>
+        <v>93.96018996451495</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29325,25 +29325,25 @@
         <v>37.51674264501764</v>
       </c>
       <c r="S26" t="n">
-        <v>93.96018996451492</v>
+        <v>93.96018996451495</v>
       </c>
       <c r="T26" t="n">
-        <v>93.96018996451492</v>
+        <v>93.96018996451495</v>
       </c>
       <c r="U26" t="n">
-        <v>93.96018996451492</v>
+        <v>93.96018996451495</v>
       </c>
       <c r="V26" t="n">
-        <v>93.96018996451492</v>
+        <v>93.96018996451495</v>
       </c>
       <c r="W26" t="n">
-        <v>93.96018996451492</v>
+        <v>93.96018996451495</v>
       </c>
       <c r="X26" t="n">
-        <v>93.96018996451492</v>
+        <v>93.96018996451495</v>
       </c>
       <c r="Y26" t="n">
-        <v>93.96018996451492</v>
+        <v>93.96018996451495</v>
       </c>
     </row>
     <row r="27">
@@ -29432,76 +29432,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>93.96018996451492</v>
+        <v>93.96018996451495</v>
       </c>
       <c r="C28" t="n">
-        <v>93.96018996451492</v>
+        <v>93.96018996451495</v>
       </c>
       <c r="D28" t="n">
-        <v>93.96018996451492</v>
+        <v>93.96018996451495</v>
       </c>
       <c r="E28" t="n">
-        <v>93.96018996451492</v>
+        <v>93.96018996451495</v>
       </c>
       <c r="F28" t="n">
-        <v>93.96018996451492</v>
+        <v>93.96018996451495</v>
       </c>
       <c r="G28" t="n">
-        <v>93.96018996451492</v>
+        <v>93.96018996451495</v>
       </c>
       <c r="H28" t="n">
-        <v>93.96018996451492</v>
+        <v>93.96018996451495</v>
       </c>
       <c r="I28" t="n">
-        <v>93.96018996451492</v>
+        <v>93.96018996451495</v>
       </c>
       <c r="J28" t="n">
-        <v>93.96018996451492</v>
+        <v>93.96018996451495</v>
       </c>
       <c r="K28" t="n">
-        <v>93.96018996451492</v>
+        <v>93.96018996451495</v>
       </c>
       <c r="L28" t="n">
-        <v>93.96018996451492</v>
+        <v>93.96018996451495</v>
       </c>
       <c r="M28" t="n">
-        <v>93.96018996451492</v>
+        <v>93.96018996451495</v>
       </c>
       <c r="N28" t="n">
-        <v>93.96018996451492</v>
+        <v>93.96018996451495</v>
       </c>
       <c r="O28" t="n">
-        <v>93.96018996451492</v>
+        <v>93.96018996451495</v>
       </c>
       <c r="P28" t="n">
-        <v>93.96018996451492</v>
+        <v>93.96018996451495</v>
       </c>
       <c r="Q28" t="n">
-        <v>93.96018996451492</v>
+        <v>93.96018996451495</v>
       </c>
       <c r="R28" t="n">
-        <v>93.96018996451492</v>
+        <v>93.96018996451495</v>
       </c>
       <c r="S28" t="n">
-        <v>93.96018996451492</v>
+        <v>93.96018996451495</v>
       </c>
       <c r="T28" t="n">
-        <v>93.96018996451492</v>
+        <v>93.96018996451495</v>
       </c>
       <c r="U28" t="n">
-        <v>93.96018996451492</v>
+        <v>93.96018996451495</v>
       </c>
       <c r="V28" t="n">
-        <v>93.96018996451492</v>
+        <v>93.96018996451495</v>
       </c>
       <c r="W28" t="n">
-        <v>93.96018996451492</v>
+        <v>93.96018996451495</v>
       </c>
       <c r="X28" t="n">
-        <v>93.96018996451492</v>
+        <v>93.96018996451495</v>
       </c>
       <c r="Y28" t="n">
-        <v>93.96018996451492</v>
+        <v>93.96018996451495</v>
       </c>
     </row>
     <row r="29">
@@ -29511,28 +29511,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>93.96018996451492</v>
+        <v>93.96018996451495</v>
       </c>
       <c r="C29" t="n">
-        <v>93.96018996451492</v>
+        <v>93.96018996451495</v>
       </c>
       <c r="D29" t="n">
-        <v>93.96018996451492</v>
+        <v>93.96018996451495</v>
       </c>
       <c r="E29" t="n">
-        <v>93.96018996451492</v>
+        <v>93.96018996451495</v>
       </c>
       <c r="F29" t="n">
-        <v>93.96018996451492</v>
+        <v>93.96018996451495</v>
       </c>
       <c r="G29" t="n">
-        <v>93.96018996451492</v>
+        <v>93.96018996451495</v>
       </c>
       <c r="H29" t="n">
-        <v>93.96018996451492</v>
+        <v>93.96018996451495</v>
       </c>
       <c r="I29" t="n">
-        <v>93.96018996451492</v>
+        <v>93.96018996451495</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29562,25 +29562,25 @@
         <v>37.51674264501764</v>
       </c>
       <c r="S29" t="n">
-        <v>93.96018996451492</v>
+        <v>93.96018996451495</v>
       </c>
       <c r="T29" t="n">
-        <v>93.96018996451492</v>
+        <v>93.96018996451495</v>
       </c>
       <c r="U29" t="n">
-        <v>93.96018996451492</v>
+        <v>93.96018996451495</v>
       </c>
       <c r="V29" t="n">
-        <v>93.96018996451492</v>
+        <v>93.96018996451495</v>
       </c>
       <c r="W29" t="n">
-        <v>93.96018996451492</v>
+        <v>93.96018996451495</v>
       </c>
       <c r="X29" t="n">
-        <v>93.96018996451492</v>
+        <v>93.96018996451495</v>
       </c>
       <c r="Y29" t="n">
-        <v>93.96018996451492</v>
+        <v>93.96018996451495</v>
       </c>
     </row>
     <row r="30">
@@ -29669,76 +29669,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>93.96018996451492</v>
+        <v>93.96018996451495</v>
       </c>
       <c r="C31" t="n">
-        <v>93.96018996451492</v>
+        <v>93.96018996451495</v>
       </c>
       <c r="D31" t="n">
-        <v>93.96018996451492</v>
+        <v>93.96018996451495</v>
       </c>
       <c r="E31" t="n">
-        <v>93.96018996451492</v>
+        <v>93.96018996451495</v>
       </c>
       <c r="F31" t="n">
-        <v>93.96018996451492</v>
+        <v>93.96018996451495</v>
       </c>
       <c r="G31" t="n">
-        <v>93.96018996451492</v>
+        <v>93.96018996451495</v>
       </c>
       <c r="H31" t="n">
-        <v>93.96018996451492</v>
+        <v>93.96018996451495</v>
       </c>
       <c r="I31" t="n">
-        <v>93.96018996451492</v>
+        <v>93.96018996451495</v>
       </c>
       <c r="J31" t="n">
-        <v>93.96018996451492</v>
+        <v>93.96018996451495</v>
       </c>
       <c r="K31" t="n">
-        <v>93.96018996451492</v>
+        <v>93.96018996451495</v>
       </c>
       <c r="L31" t="n">
-        <v>93.96018996451492</v>
+        <v>93.96018996451495</v>
       </c>
       <c r="M31" t="n">
-        <v>93.96018996451492</v>
+        <v>93.96018996451495</v>
       </c>
       <c r="N31" t="n">
-        <v>93.96018996451492</v>
+        <v>93.96018996451495</v>
       </c>
       <c r="O31" t="n">
-        <v>93.96018996451492</v>
+        <v>93.96018996451495</v>
       </c>
       <c r="P31" t="n">
-        <v>93.96018996451492</v>
+        <v>93.96018996451495</v>
       </c>
       <c r="Q31" t="n">
-        <v>93.96018996451492</v>
+        <v>93.96018996451495</v>
       </c>
       <c r="R31" t="n">
-        <v>93.96018996451492</v>
+        <v>93.96018996451495</v>
       </c>
       <c r="S31" t="n">
-        <v>93.96018996451492</v>
+        <v>93.96018996451495</v>
       </c>
       <c r="T31" t="n">
-        <v>93.96018996451492</v>
+        <v>93.96018996451495</v>
       </c>
       <c r="U31" t="n">
-        <v>93.96018996451492</v>
+        <v>93.96018996451495</v>
       </c>
       <c r="V31" t="n">
-        <v>93.96018996451492</v>
+        <v>93.96018996451495</v>
       </c>
       <c r="W31" t="n">
-        <v>93.96018996451492</v>
+        <v>93.96018996451495</v>
       </c>
       <c r="X31" t="n">
-        <v>93.96018996451492</v>
+        <v>93.96018996451495</v>
       </c>
       <c r="Y31" t="n">
-        <v>93.96018996451492</v>
+        <v>93.96018996451495</v>
       </c>
     </row>
     <row r="32">
@@ -29930,7 +29930,7 @@
         <v>93.96018996451492</v>
       </c>
       <c r="J34" t="n">
-        <v>93.96018996451527</v>
+        <v>93.96018996451492</v>
       </c>
       <c r="K34" t="n">
         <v>93.96018996451492</v>
@@ -29945,7 +29945,7 @@
         <v>93.96018996451492</v>
       </c>
       <c r="O34" t="n">
-        <v>93.96018996451492</v>
+        <v>93.96018996451545</v>
       </c>
       <c r="P34" t="n">
         <v>93.96018996451492</v>
@@ -30179,7 +30179,7 @@
         <v>93.96018996451492</v>
       </c>
       <c r="N37" t="n">
-        <v>93.96018996451492</v>
+        <v>93.96018996451537</v>
       </c>
       <c r="O37" t="n">
         <v>93.96018996451492</v>
@@ -30425,7 +30425,7 @@
         <v>93.96018996451492</v>
       </c>
       <c r="Q40" t="n">
-        <v>93.96018996451544</v>
+        <v>93.96018996451492</v>
       </c>
       <c r="R40" t="n">
         <v>93.96018996451492</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.001532118397956628</v>
+        <v>0.001532118397956607</v>
       </c>
       <c r="H14" t="n">
-        <v>0.01569080754307333</v>
+        <v>0.0156908075430731</v>
       </c>
       <c r="I14" t="n">
-        <v>0.05906699453722298</v>
+        <v>0.05906699453722213</v>
       </c>
       <c r="J14" t="n">
-        <v>0.1300366338785715</v>
+        <v>0.1300366338785697</v>
       </c>
       <c r="K14" t="n">
-        <v>0.1948912056640756</v>
+        <v>0.1948912056640729</v>
       </c>
       <c r="L14" t="n">
-        <v>0.2417797740855409</v>
+        <v>0.2417797740855374</v>
       </c>
       <c r="M14" t="n">
-        <v>0.2690265846452021</v>
+        <v>0.2690265846451982</v>
       </c>
       <c r="N14" t="n">
-        <v>0.2733797160433963</v>
+        <v>0.2733797160433925</v>
       </c>
       <c r="O14" t="n">
-        <v>0.2581447137237151</v>
+        <v>0.2581447137237114</v>
       </c>
       <c r="P14" t="n">
-        <v>0.2203205407741608</v>
+        <v>0.2203205407741577</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.165451550647339</v>
+        <v>0.1654515506473366</v>
       </c>
       <c r="R14" t="n">
-        <v>0.09624193231564315</v>
+        <v>0.09624193231564178</v>
       </c>
       <c r="S14" t="n">
-        <v>0.03491314799343671</v>
+        <v>0.03491314799343621</v>
       </c>
       <c r="T14" t="n">
-        <v>0.006706848287055145</v>
+        <v>0.006706848287055049</v>
       </c>
       <c r="U14" t="n">
-        <v>0.0001225694718365303</v>
+        <v>0.0001225694718365285</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0008197556126425496</v>
+        <v>0.0008197556126425379</v>
       </c>
       <c r="H15" t="n">
-        <v>0.007917113416837256</v>
+        <v>0.007917113416837143</v>
       </c>
       <c r="I15" t="n">
-        <v>0.02822404192650884</v>
+        <v>0.02822404192650843</v>
       </c>
       <c r="J15" t="n">
-        <v>0.07744892829795247</v>
+        <v>0.07744892829795136</v>
       </c>
       <c r="K15" t="n">
-        <v>0.1323725543450033</v>
+        <v>0.1323725543450014</v>
       </c>
       <c r="L15" t="n">
-        <v>0.1779912351046904</v>
+        <v>0.1779912351046879</v>
       </c>
       <c r="M15" t="n">
-        <v>0.2077073760629828</v>
+        <v>0.2077073760629798</v>
       </c>
       <c r="N15" t="n">
-        <v>0.2132047722547831</v>
+        <v>0.2132047722547801</v>
       </c>
       <c r="O15" t="n">
-        <v>0.195040713679914</v>
+        <v>0.1950407136799112</v>
       </c>
       <c r="P15" t="n">
-        <v>0.15653736782119</v>
+        <v>0.1565373678211878</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.1046410848699507</v>
+        <v>0.1046410848699492</v>
       </c>
       <c r="R15" t="n">
-        <v>0.050896756370912</v>
+        <v>0.05089675637091128</v>
       </c>
       <c r="S15" t="n">
-        <v>0.01522660096289998</v>
+        <v>0.01522660096289976</v>
       </c>
       <c r="T15" t="n">
-        <v>0.003304190386046065</v>
+        <v>0.003304190386046017</v>
       </c>
       <c r="U15" t="n">
-        <v>5.393129030543091e-05</v>
+        <v>5.393129030543014e-05</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0006872555682637422</v>
+        <v>0.0006872555682637324</v>
       </c>
       <c r="H16" t="n">
-        <v>0.006110326779654004</v>
+        <v>0.006110326779653916</v>
       </c>
       <c r="I16" t="n">
-        <v>0.02066764927105873</v>
+        <v>0.02066764927105843</v>
       </c>
       <c r="J16" t="n">
-        <v>0.04858896867624657</v>
+        <v>0.04858896867624588</v>
       </c>
       <c r="K16" t="n">
-        <v>0.07984660147646022</v>
+        <v>0.07984660147645907</v>
       </c>
       <c r="L16" t="n">
-        <v>0.1021761596671386</v>
+        <v>0.1021761596671371</v>
       </c>
       <c r="M16" t="n">
-        <v>0.1077304342142882</v>
+        <v>0.1077304342142867</v>
       </c>
       <c r="N16" t="n">
-        <v>0.1051688452780326</v>
+        <v>0.1051688452780311</v>
       </c>
       <c r="O16" t="n">
-        <v>0.09714045068513334</v>
+        <v>0.09714045068513195</v>
       </c>
       <c r="P16" t="n">
-        <v>0.08312043709255293</v>
+        <v>0.08312043709255175</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.05754828217524845</v>
+        <v>0.05754828217524764</v>
       </c>
       <c r="R16" t="n">
-        <v>0.03090150946029516</v>
+        <v>0.03090150946029472</v>
       </c>
       <c r="S16" t="n">
-        <v>0.01197699022146903</v>
+        <v>0.01197699022146886</v>
       </c>
       <c r="T16" t="n">
-        <v>0.00293645560985417</v>
+        <v>0.002936455609854129</v>
       </c>
       <c r="U16" t="n">
-        <v>3.748666735984053e-05</v>
+        <v>3.748666735983999e-05</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.001532118397956628</v>
+        <v>0.001532118397956591</v>
       </c>
       <c r="H17" t="n">
-        <v>0.01569080754307332</v>
+        <v>0.01569080754307294</v>
       </c>
       <c r="I17" t="n">
-        <v>0.05906699453722297</v>
+        <v>0.05906699453722154</v>
       </c>
       <c r="J17" t="n">
-        <v>0.1300366338785715</v>
+        <v>0.1300366338785683</v>
       </c>
       <c r="K17" t="n">
-        <v>0.1948912056640756</v>
+        <v>0.1948912056640709</v>
       </c>
       <c r="L17" t="n">
-        <v>0.2417797740855408</v>
+        <v>0.2417797740855349</v>
       </c>
       <c r="M17" t="n">
-        <v>0.269026584645202</v>
+        <v>0.2690265846451955</v>
       </c>
       <c r="N17" t="n">
-        <v>0.2733797160433963</v>
+        <v>0.2733797160433897</v>
       </c>
       <c r="O17" t="n">
-        <v>0.2581447137237151</v>
+        <v>0.2581447137237088</v>
       </c>
       <c r="P17" t="n">
-        <v>0.2203205407741608</v>
+        <v>0.2203205407741554</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.165451550647339</v>
+        <v>0.1654515506473349</v>
       </c>
       <c r="R17" t="n">
-        <v>0.09624193231564314</v>
+        <v>0.09624193231564079</v>
       </c>
       <c r="S17" t="n">
-        <v>0.0349131479934367</v>
+        <v>0.03491314799343585</v>
       </c>
       <c r="T17" t="n">
-        <v>0.006706848287055144</v>
+        <v>0.006706848287054981</v>
       </c>
       <c r="U17" t="n">
-        <v>0.0001225694718365302</v>
+        <v>0.0001225694718365273</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0008197556126425495</v>
+        <v>0.0008197556126425295</v>
       </c>
       <c r="H18" t="n">
-        <v>0.007917113416837256</v>
+        <v>0.007917113416837063</v>
       </c>
       <c r="I18" t="n">
-        <v>0.02822404192650883</v>
+        <v>0.02822404192650815</v>
       </c>
       <c r="J18" t="n">
-        <v>0.07744892829795245</v>
+        <v>0.07744892829795058</v>
       </c>
       <c r="K18" t="n">
-        <v>0.1323725543450033</v>
+        <v>0.1323725543450001</v>
       </c>
       <c r="L18" t="n">
-        <v>0.1779912351046904</v>
+        <v>0.1779912351046861</v>
       </c>
       <c r="M18" t="n">
-        <v>0.2077073760629828</v>
+        <v>0.2077073760629777</v>
       </c>
       <c r="N18" t="n">
-        <v>0.2132047722547831</v>
+        <v>0.2132047722547779</v>
       </c>
       <c r="O18" t="n">
-        <v>0.1950407136799139</v>
+        <v>0.1950407136799092</v>
       </c>
       <c r="P18" t="n">
-        <v>0.15653736782119</v>
+        <v>0.1565373678211862</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.1046410848699507</v>
+        <v>0.1046410848699482</v>
       </c>
       <c r="R18" t="n">
-        <v>0.050896756370912</v>
+        <v>0.05089675637091075</v>
       </c>
       <c r="S18" t="n">
-        <v>0.01522660096289998</v>
+        <v>0.01522660096289961</v>
       </c>
       <c r="T18" t="n">
-        <v>0.003304190386046064</v>
+        <v>0.003304190386045984</v>
       </c>
       <c r="U18" t="n">
-        <v>5.393129030543091e-05</v>
+        <v>5.393129030542959e-05</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0006872555682637422</v>
+        <v>0.0006872555682637254</v>
       </c>
       <c r="H19" t="n">
-        <v>0.006110326779654003</v>
+        <v>0.006110326779653854</v>
       </c>
       <c r="I19" t="n">
-        <v>0.02066764927105872</v>
+        <v>0.02066764927105822</v>
       </c>
       <c r="J19" t="n">
-        <v>0.04858896867624656</v>
+        <v>0.04858896867624538</v>
       </c>
       <c r="K19" t="n">
-        <v>0.07984660147646021</v>
+        <v>0.07984660147645826</v>
       </c>
       <c r="L19" t="n">
-        <v>0.1021761596671386</v>
+        <v>0.1021761596671361</v>
       </c>
       <c r="M19" t="n">
-        <v>0.1077304342142882</v>
+        <v>0.1077304342142856</v>
       </c>
       <c r="N19" t="n">
-        <v>0.1051688452780325</v>
+        <v>0.10516884527803</v>
       </c>
       <c r="O19" t="n">
-        <v>0.09714045068513333</v>
+        <v>0.09714045068513097</v>
       </c>
       <c r="P19" t="n">
-        <v>0.08312043709255293</v>
+        <v>0.0831204370925509</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.05754828217524845</v>
+        <v>0.05754828217524705</v>
       </c>
       <c r="R19" t="n">
-        <v>0.03090150946029516</v>
+        <v>0.03090150946029441</v>
       </c>
       <c r="S19" t="n">
-        <v>0.01197699022146903</v>
+        <v>0.01197699022146874</v>
       </c>
       <c r="T19" t="n">
-        <v>0.00293645560985417</v>
+        <v>0.002936455609854099</v>
       </c>
       <c r="U19" t="n">
-        <v>3.748666735984053e-05</v>
+        <v>3.748666735983961e-05</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.001532118397956628</v>
+        <v>0.001532118397956591</v>
       </c>
       <c r="H20" t="n">
-        <v>0.01569080754307332</v>
+        <v>0.01569080754307294</v>
       </c>
       <c r="I20" t="n">
-        <v>0.05906699453722297</v>
+        <v>0.05906699453722154</v>
       </c>
       <c r="J20" t="n">
-        <v>0.1300366338785715</v>
+        <v>0.1300366338785683</v>
       </c>
       <c r="K20" t="n">
-        <v>0.1948912056640756</v>
+        <v>0.1948912056640709</v>
       </c>
       <c r="L20" t="n">
-        <v>0.2417797740855408</v>
+        <v>0.2417797740855349</v>
       </c>
       <c r="M20" t="n">
-        <v>0.269026584645202</v>
+        <v>0.2690265846451955</v>
       </c>
       <c r="N20" t="n">
-        <v>0.2733797160433963</v>
+        <v>0.2733797160433897</v>
       </c>
       <c r="O20" t="n">
-        <v>0.2581447137237151</v>
+        <v>0.2581447137237088</v>
       </c>
       <c r="P20" t="n">
-        <v>0.2203205407741608</v>
+        <v>0.2203205407741554</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.165451550647339</v>
+        <v>0.1654515506473349</v>
       </c>
       <c r="R20" t="n">
-        <v>0.09624193231564314</v>
+        <v>0.09624193231564079</v>
       </c>
       <c r="S20" t="n">
-        <v>0.0349131479934367</v>
+        <v>0.03491314799343585</v>
       </c>
       <c r="T20" t="n">
-        <v>0.006706848287055144</v>
+        <v>0.006706848287054981</v>
       </c>
       <c r="U20" t="n">
-        <v>0.0001225694718365302</v>
+        <v>0.0001225694718365273</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0008197556126425495</v>
+        <v>0.0008197556126425295</v>
       </c>
       <c r="H21" t="n">
-        <v>0.007917113416837256</v>
+        <v>0.007917113416837063</v>
       </c>
       <c r="I21" t="n">
-        <v>0.02822404192650883</v>
+        <v>0.02822404192650815</v>
       </c>
       <c r="J21" t="n">
-        <v>0.07744892829795245</v>
+        <v>0.07744892829795058</v>
       </c>
       <c r="K21" t="n">
-        <v>0.1323725543450033</v>
+        <v>0.1323725543450001</v>
       </c>
       <c r="L21" t="n">
-        <v>0.1779912351046904</v>
+        <v>0.1779912351046861</v>
       </c>
       <c r="M21" t="n">
-        <v>0.2077073760629828</v>
+        <v>0.2077073760629777</v>
       </c>
       <c r="N21" t="n">
-        <v>0.2132047722547831</v>
+        <v>0.2132047722547779</v>
       </c>
       <c r="O21" t="n">
-        <v>0.1950407136799139</v>
+        <v>0.1950407136799092</v>
       </c>
       <c r="P21" t="n">
-        <v>0.15653736782119</v>
+        <v>0.1565373678211862</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.1046410848699507</v>
+        <v>0.1046410848699482</v>
       </c>
       <c r="R21" t="n">
-        <v>0.050896756370912</v>
+        <v>0.05089675637091075</v>
       </c>
       <c r="S21" t="n">
-        <v>0.01522660096289998</v>
+        <v>0.01522660096289961</v>
       </c>
       <c r="T21" t="n">
-        <v>0.003304190386046064</v>
+        <v>0.003304190386045984</v>
       </c>
       <c r="U21" t="n">
-        <v>5.393129030543091e-05</v>
+        <v>5.393129030542959e-05</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0006872555682637422</v>
+        <v>0.0006872555682637254</v>
       </c>
       <c r="H22" t="n">
-        <v>0.006110326779654003</v>
+        <v>0.006110326779653854</v>
       </c>
       <c r="I22" t="n">
-        <v>0.02066764927105872</v>
+        <v>0.02066764927105822</v>
       </c>
       <c r="J22" t="n">
-        <v>0.04858896867624656</v>
+        <v>0.04858896867624538</v>
       </c>
       <c r="K22" t="n">
-        <v>0.07984660147646021</v>
+        <v>0.07984660147645826</v>
       </c>
       <c r="L22" t="n">
-        <v>0.1021761596671386</v>
+        <v>0.1021761596671361</v>
       </c>
       <c r="M22" t="n">
-        <v>0.1077304342142882</v>
+        <v>0.1077304342142856</v>
       </c>
       <c r="N22" t="n">
-        <v>0.1051688452780325</v>
+        <v>0.10516884527803</v>
       </c>
       <c r="O22" t="n">
-        <v>0.09714045068513333</v>
+        <v>0.09714045068513097</v>
       </c>
       <c r="P22" t="n">
-        <v>0.08312043709255293</v>
+        <v>0.0831204370925509</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.05754828217524845</v>
+        <v>0.05754828217524705</v>
       </c>
       <c r="R22" t="n">
-        <v>0.03090150946029516</v>
+        <v>0.03090150946029441</v>
       </c>
       <c r="S22" t="n">
-        <v>0.01197699022146903</v>
+        <v>0.01197699022146874</v>
       </c>
       <c r="T22" t="n">
-        <v>0.00293645560985417</v>
+        <v>0.002936455609854099</v>
       </c>
       <c r="U22" t="n">
-        <v>3.748666735984053e-05</v>
+        <v>3.748666735983961e-05</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.001532118397956628</v>
+        <v>0.001532118397956591</v>
       </c>
       <c r="H23" t="n">
-        <v>0.01569080754307332</v>
+        <v>0.01569080754307294</v>
       </c>
       <c r="I23" t="n">
-        <v>0.05906699453722297</v>
+        <v>0.05906699453722154</v>
       </c>
       <c r="J23" t="n">
-        <v>0.1300366338785715</v>
+        <v>0.1300366338785683</v>
       </c>
       <c r="K23" t="n">
-        <v>0.1948912056640756</v>
+        <v>0.1948912056640709</v>
       </c>
       <c r="L23" t="n">
-        <v>0.2417797740855408</v>
+        <v>0.2417797740855349</v>
       </c>
       <c r="M23" t="n">
-        <v>0.269026584645202</v>
+        <v>0.2690265846451955</v>
       </c>
       <c r="N23" t="n">
-        <v>0.2733797160433963</v>
+        <v>0.2733797160433897</v>
       </c>
       <c r="O23" t="n">
-        <v>0.2581447137237151</v>
+        <v>0.2581447137237088</v>
       </c>
       <c r="P23" t="n">
-        <v>0.2203205407741608</v>
+        <v>0.2203205407741554</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.165451550647339</v>
+        <v>0.1654515506473349</v>
       </c>
       <c r="R23" t="n">
-        <v>0.09624193231564314</v>
+        <v>0.09624193231564079</v>
       </c>
       <c r="S23" t="n">
-        <v>0.0349131479934367</v>
+        <v>0.03491314799343585</v>
       </c>
       <c r="T23" t="n">
-        <v>0.006706848287055144</v>
+        <v>0.006706848287054981</v>
       </c>
       <c r="U23" t="n">
-        <v>0.0001225694718365302</v>
+        <v>0.0001225694718365273</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0008197556126425495</v>
+        <v>0.0008197556126425295</v>
       </c>
       <c r="H24" t="n">
-        <v>0.007917113416837256</v>
+        <v>0.007917113416837063</v>
       </c>
       <c r="I24" t="n">
-        <v>0.02822404192650883</v>
+        <v>0.02822404192650815</v>
       </c>
       <c r="J24" t="n">
-        <v>0.07744892829795245</v>
+        <v>0.07744892829795058</v>
       </c>
       <c r="K24" t="n">
-        <v>0.1323725543450033</v>
+        <v>0.1323725543450001</v>
       </c>
       <c r="L24" t="n">
-        <v>0.1779912351046904</v>
+        <v>0.1779912351046861</v>
       </c>
       <c r="M24" t="n">
-        <v>0.2077073760629828</v>
+        <v>0.2077073760629777</v>
       </c>
       <c r="N24" t="n">
-        <v>0.2132047722547831</v>
+        <v>0.2132047722547779</v>
       </c>
       <c r="O24" t="n">
-        <v>0.1950407136799139</v>
+        <v>0.1950407136799092</v>
       </c>
       <c r="P24" t="n">
-        <v>0.15653736782119</v>
+        <v>0.1565373678211862</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.1046410848699507</v>
+        <v>0.1046410848699482</v>
       </c>
       <c r="R24" t="n">
-        <v>0.050896756370912</v>
+        <v>0.05089675637091075</v>
       </c>
       <c r="S24" t="n">
-        <v>0.01522660096289998</v>
+        <v>0.01522660096289961</v>
       </c>
       <c r="T24" t="n">
-        <v>0.003304190386046064</v>
+        <v>0.003304190386045984</v>
       </c>
       <c r="U24" t="n">
-        <v>5.393129030543091e-05</v>
+        <v>5.393129030542959e-05</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0006872555682637422</v>
+        <v>0.0006872555682637254</v>
       </c>
       <c r="H25" t="n">
-        <v>0.006110326779654003</v>
+        <v>0.006110326779653854</v>
       </c>
       <c r="I25" t="n">
-        <v>0.02066764927105872</v>
+        <v>0.02066764927105822</v>
       </c>
       <c r="J25" t="n">
-        <v>0.04858896867624656</v>
+        <v>0.04858896867624538</v>
       </c>
       <c r="K25" t="n">
-        <v>0.07984660147646021</v>
+        <v>0.07984660147645826</v>
       </c>
       <c r="L25" t="n">
-        <v>0.1021761596671386</v>
+        <v>0.1021761596671361</v>
       </c>
       <c r="M25" t="n">
-        <v>0.1077304342142882</v>
+        <v>0.1077304342142856</v>
       </c>
       <c r="N25" t="n">
-        <v>0.1051688452780325</v>
+        <v>0.10516884527803</v>
       </c>
       <c r="O25" t="n">
-        <v>0.09714045068513333</v>
+        <v>0.09714045068513097</v>
       </c>
       <c r="P25" t="n">
-        <v>0.08312043709255293</v>
+        <v>0.0831204370925509</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.05754828217524845</v>
+        <v>0.05754828217524705</v>
       </c>
       <c r="R25" t="n">
-        <v>0.03090150946029516</v>
+        <v>0.03090150946029441</v>
       </c>
       <c r="S25" t="n">
-        <v>0.01197699022146903</v>
+        <v>0.01197699022146874</v>
       </c>
       <c r="T25" t="n">
-        <v>0.00293645560985417</v>
+        <v>0.002936455609854099</v>
       </c>
       <c r="U25" t="n">
-        <v>3.748666735984053e-05</v>
+        <v>3.748666735983961e-05</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.001532118397956628</v>
+        <v>0.001532118397956591</v>
       </c>
       <c r="H26" t="n">
-        <v>0.01569080754307332</v>
+        <v>0.01569080754307294</v>
       </c>
       <c r="I26" t="n">
-        <v>0.05906699453722297</v>
+        <v>0.05906699453722154</v>
       </c>
       <c r="J26" t="n">
-        <v>0.1300366338785715</v>
+        <v>0.1300366338785683</v>
       </c>
       <c r="K26" t="n">
-        <v>0.1948912056640756</v>
+        <v>0.1948912056640709</v>
       </c>
       <c r="L26" t="n">
-        <v>0.2417797740855408</v>
+        <v>0.2417797740855349</v>
       </c>
       <c r="M26" t="n">
-        <v>0.269026584645202</v>
+        <v>0.2690265846451955</v>
       </c>
       <c r="N26" t="n">
-        <v>0.2733797160433963</v>
+        <v>0.2733797160433897</v>
       </c>
       <c r="O26" t="n">
-        <v>0.2581447137237151</v>
+        <v>0.2581447137237088</v>
       </c>
       <c r="P26" t="n">
-        <v>0.2203205407741608</v>
+        <v>0.2203205407741554</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.165451550647339</v>
+        <v>0.1654515506473349</v>
       </c>
       <c r="R26" t="n">
-        <v>0.09624193231564314</v>
+        <v>0.09624193231564079</v>
       </c>
       <c r="S26" t="n">
-        <v>0.0349131479934367</v>
+        <v>0.03491314799343585</v>
       </c>
       <c r="T26" t="n">
-        <v>0.006706848287055144</v>
+        <v>0.006706848287054981</v>
       </c>
       <c r="U26" t="n">
-        <v>0.0001225694718365302</v>
+        <v>0.0001225694718365273</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0008197556126425495</v>
+        <v>0.0008197556126425295</v>
       </c>
       <c r="H27" t="n">
-        <v>0.007917113416837256</v>
+        <v>0.007917113416837063</v>
       </c>
       <c r="I27" t="n">
-        <v>0.02822404192650883</v>
+        <v>0.02822404192650815</v>
       </c>
       <c r="J27" t="n">
-        <v>0.07744892829795245</v>
+        <v>0.07744892829795058</v>
       </c>
       <c r="K27" t="n">
-        <v>0.1323725543450033</v>
+        <v>0.1323725543450001</v>
       </c>
       <c r="L27" t="n">
-        <v>0.1779912351046904</v>
+        <v>0.1779912351046861</v>
       </c>
       <c r="M27" t="n">
-        <v>0.2077073760629828</v>
+        <v>0.2077073760629777</v>
       </c>
       <c r="N27" t="n">
-        <v>0.2132047722547831</v>
+        <v>0.2132047722547779</v>
       </c>
       <c r="O27" t="n">
-        <v>0.1950407136799139</v>
+        <v>0.1950407136799092</v>
       </c>
       <c r="P27" t="n">
-        <v>0.15653736782119</v>
+        <v>0.1565373678211862</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.1046410848699507</v>
+        <v>0.1046410848699482</v>
       </c>
       <c r="R27" t="n">
-        <v>0.050896756370912</v>
+        <v>0.05089675637091075</v>
       </c>
       <c r="S27" t="n">
-        <v>0.01522660096289998</v>
+        <v>0.01522660096289961</v>
       </c>
       <c r="T27" t="n">
-        <v>0.003304190386046064</v>
+        <v>0.003304190386045984</v>
       </c>
       <c r="U27" t="n">
-        <v>5.393129030543091e-05</v>
+        <v>5.393129030542959e-05</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0006872555682637422</v>
+        <v>0.0006872555682637254</v>
       </c>
       <c r="H28" t="n">
-        <v>0.006110326779654003</v>
+        <v>0.006110326779653854</v>
       </c>
       <c r="I28" t="n">
-        <v>0.02066764927105872</v>
+        <v>0.02066764927105822</v>
       </c>
       <c r="J28" t="n">
-        <v>0.04858896867624656</v>
+        <v>0.04858896867624538</v>
       </c>
       <c r="K28" t="n">
-        <v>0.07984660147646021</v>
+        <v>0.07984660147645826</v>
       </c>
       <c r="L28" t="n">
-        <v>0.1021761596671386</v>
+        <v>0.1021761596671361</v>
       </c>
       <c r="M28" t="n">
-        <v>0.1077304342142882</v>
+        <v>0.1077304342142856</v>
       </c>
       <c r="N28" t="n">
-        <v>0.1051688452780325</v>
+        <v>0.10516884527803</v>
       </c>
       <c r="O28" t="n">
-        <v>0.09714045068513333</v>
+        <v>0.09714045068513097</v>
       </c>
       <c r="P28" t="n">
-        <v>0.08312043709255293</v>
+        <v>0.0831204370925509</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.05754828217524845</v>
+        <v>0.05754828217524705</v>
       </c>
       <c r="R28" t="n">
-        <v>0.03090150946029516</v>
+        <v>0.03090150946029441</v>
       </c>
       <c r="S28" t="n">
-        <v>0.01197699022146903</v>
+        <v>0.01197699022146874</v>
       </c>
       <c r="T28" t="n">
-        <v>0.00293645560985417</v>
+        <v>0.002936455609854099</v>
       </c>
       <c r="U28" t="n">
-        <v>3.748666735984053e-05</v>
+        <v>3.748666735983961e-05</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.001532118397956628</v>
+        <v>0.001532118397956591</v>
       </c>
       <c r="H29" t="n">
-        <v>0.01569080754307332</v>
+        <v>0.01569080754307294</v>
       </c>
       <c r="I29" t="n">
-        <v>0.05906699453722297</v>
+        <v>0.05906699453722154</v>
       </c>
       <c r="J29" t="n">
-        <v>0.1300366338785715</v>
+        <v>0.1300366338785683</v>
       </c>
       <c r="K29" t="n">
-        <v>0.1948912056640756</v>
+        <v>0.1948912056640709</v>
       </c>
       <c r="L29" t="n">
-        <v>0.2417797740855408</v>
+        <v>0.2417797740855349</v>
       </c>
       <c r="M29" t="n">
-        <v>0.269026584645202</v>
+        <v>0.2690265846451955</v>
       </c>
       <c r="N29" t="n">
-        <v>0.2733797160433963</v>
+        <v>0.2733797160433897</v>
       </c>
       <c r="O29" t="n">
-        <v>0.2581447137237151</v>
+        <v>0.2581447137237088</v>
       </c>
       <c r="P29" t="n">
-        <v>0.2203205407741608</v>
+        <v>0.2203205407741554</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.165451550647339</v>
+        <v>0.1654515506473349</v>
       </c>
       <c r="R29" t="n">
-        <v>0.09624193231564314</v>
+        <v>0.09624193231564079</v>
       </c>
       <c r="S29" t="n">
-        <v>0.0349131479934367</v>
+        <v>0.03491314799343585</v>
       </c>
       <c r="T29" t="n">
-        <v>0.006706848287055144</v>
+        <v>0.006706848287054981</v>
       </c>
       <c r="U29" t="n">
-        <v>0.0001225694718365302</v>
+        <v>0.0001225694718365273</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0008197556126425495</v>
+        <v>0.0008197556126425295</v>
       </c>
       <c r="H30" t="n">
-        <v>0.007917113416837256</v>
+        <v>0.007917113416837063</v>
       </c>
       <c r="I30" t="n">
-        <v>0.02822404192650883</v>
+        <v>0.02822404192650815</v>
       </c>
       <c r="J30" t="n">
-        <v>0.07744892829795245</v>
+        <v>0.07744892829795058</v>
       </c>
       <c r="K30" t="n">
-        <v>0.1323725543450033</v>
+        <v>0.1323725543450001</v>
       </c>
       <c r="L30" t="n">
-        <v>0.1779912351046904</v>
+        <v>0.1779912351046861</v>
       </c>
       <c r="M30" t="n">
-        <v>0.2077073760629828</v>
+        <v>0.2077073760629777</v>
       </c>
       <c r="N30" t="n">
-        <v>0.2132047722547831</v>
+        <v>0.2132047722547779</v>
       </c>
       <c r="O30" t="n">
-        <v>0.1950407136799139</v>
+        <v>0.1950407136799092</v>
       </c>
       <c r="P30" t="n">
-        <v>0.15653736782119</v>
+        <v>0.1565373678211862</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.1046410848699507</v>
+        <v>0.1046410848699482</v>
       </c>
       <c r="R30" t="n">
-        <v>0.050896756370912</v>
+        <v>0.05089675637091075</v>
       </c>
       <c r="S30" t="n">
-        <v>0.01522660096289998</v>
+        <v>0.01522660096289961</v>
       </c>
       <c r="T30" t="n">
-        <v>0.003304190386046064</v>
+        <v>0.003304190386045984</v>
       </c>
       <c r="U30" t="n">
-        <v>5.393129030543091e-05</v>
+        <v>5.393129030542959e-05</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0006872555682637422</v>
+        <v>0.0006872555682637254</v>
       </c>
       <c r="H31" t="n">
-        <v>0.006110326779654003</v>
+        <v>0.006110326779653854</v>
       </c>
       <c r="I31" t="n">
-        <v>0.02066764927105872</v>
+        <v>0.02066764927105822</v>
       </c>
       <c r="J31" t="n">
-        <v>0.04858896867624656</v>
+        <v>0.04858896867624538</v>
       </c>
       <c r="K31" t="n">
-        <v>0.07984660147646021</v>
+        <v>0.07984660147645826</v>
       </c>
       <c r="L31" t="n">
-        <v>0.1021761596671386</v>
+        <v>0.1021761596671361</v>
       </c>
       <c r="M31" t="n">
-        <v>0.1077304342142882</v>
+        <v>0.1077304342142856</v>
       </c>
       <c r="N31" t="n">
-        <v>0.1051688452780325</v>
+        <v>0.10516884527803</v>
       </c>
       <c r="O31" t="n">
-        <v>0.09714045068513333</v>
+        <v>0.09714045068513097</v>
       </c>
       <c r="P31" t="n">
-        <v>0.08312043709255293</v>
+        <v>0.0831204370925509</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.05754828217524845</v>
+        <v>0.05754828217524705</v>
       </c>
       <c r="R31" t="n">
-        <v>0.03090150946029516</v>
+        <v>0.03090150946029441</v>
       </c>
       <c r="S31" t="n">
-        <v>0.01197699022146903</v>
+        <v>0.01197699022146874</v>
       </c>
       <c r="T31" t="n">
-        <v>0.00293645560985417</v>
+        <v>0.002936455609854099</v>
       </c>
       <c r="U31" t="n">
-        <v>3.748666735984053e-05</v>
+        <v>3.748666735983961e-05</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.001532118397956628</v>
+        <v>0.001532118397956591</v>
       </c>
       <c r="H32" t="n">
-        <v>0.01569080754307332</v>
+        <v>0.01569080754307294</v>
       </c>
       <c r="I32" t="n">
-        <v>0.05906699453722297</v>
+        <v>0.05906699453722154</v>
       </c>
       <c r="J32" t="n">
-        <v>0.1300366338785715</v>
+        <v>0.1300366338785683</v>
       </c>
       <c r="K32" t="n">
-        <v>0.1948912056640756</v>
+        <v>0.1948912056640709</v>
       </c>
       <c r="L32" t="n">
-        <v>0.2417797740855408</v>
+        <v>0.2417797740855349</v>
       </c>
       <c r="M32" t="n">
-        <v>0.269026584645202</v>
+        <v>0.2690265846451955</v>
       </c>
       <c r="N32" t="n">
-        <v>0.2733797160433963</v>
+        <v>0.2733797160433897</v>
       </c>
       <c r="O32" t="n">
-        <v>0.2581447137237151</v>
+        <v>0.2581447137237088</v>
       </c>
       <c r="P32" t="n">
-        <v>0.2203205407741608</v>
+        <v>0.2203205407741554</v>
       </c>
       <c r="Q32" t="n">
-        <v>0.165451550647339</v>
+        <v>0.1654515506473349</v>
       </c>
       <c r="R32" t="n">
-        <v>0.09624193231564314</v>
+        <v>0.09624193231564079</v>
       </c>
       <c r="S32" t="n">
-        <v>0.0349131479934367</v>
+        <v>0.03491314799343585</v>
       </c>
       <c r="T32" t="n">
-        <v>0.006706848287055144</v>
+        <v>0.006706848287054981</v>
       </c>
       <c r="U32" t="n">
-        <v>0.0001225694718365302</v>
+        <v>0.0001225694718365273</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0008197556126425495</v>
+        <v>0.0008197556126425295</v>
       </c>
       <c r="H33" t="n">
-        <v>0.007917113416837256</v>
+        <v>0.007917113416837063</v>
       </c>
       <c r="I33" t="n">
-        <v>0.02822404192650883</v>
+        <v>0.02822404192650815</v>
       </c>
       <c r="J33" t="n">
-        <v>0.07744892829795245</v>
+        <v>0.07744892829795058</v>
       </c>
       <c r="K33" t="n">
-        <v>0.1323725543450033</v>
+        <v>0.1323725543450001</v>
       </c>
       <c r="L33" t="n">
-        <v>0.1779912351046904</v>
+        <v>0.1779912351046861</v>
       </c>
       <c r="M33" t="n">
-        <v>0.2077073760629828</v>
+        <v>0.2077073760629777</v>
       </c>
       <c r="N33" t="n">
-        <v>0.2132047722547831</v>
+        <v>0.2132047722547779</v>
       </c>
       <c r="O33" t="n">
-        <v>0.1950407136799139</v>
+        <v>0.1950407136799092</v>
       </c>
       <c r="P33" t="n">
-        <v>0.15653736782119</v>
+        <v>0.1565373678211862</v>
       </c>
       <c r="Q33" t="n">
-        <v>0.1046410848699507</v>
+        <v>0.1046410848699482</v>
       </c>
       <c r="R33" t="n">
-        <v>0.050896756370912</v>
+        <v>0.05089675637091075</v>
       </c>
       <c r="S33" t="n">
-        <v>0.01522660096289998</v>
+        <v>0.01522660096289961</v>
       </c>
       <c r="T33" t="n">
-        <v>0.003304190386046064</v>
+        <v>0.003304190386045984</v>
       </c>
       <c r="U33" t="n">
-        <v>5.393129030543091e-05</v>
+        <v>5.393129030542959e-05</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.0006872555682637422</v>
+        <v>0.0006872555682637254</v>
       </c>
       <c r="H34" t="n">
-        <v>0.006110326779654003</v>
+        <v>0.006110326779653854</v>
       </c>
       <c r="I34" t="n">
-        <v>0.02066764927105872</v>
+        <v>0.02066764927105822</v>
       </c>
       <c r="J34" t="n">
-        <v>0.04858896867624656</v>
+        <v>0.04858896867624538</v>
       </c>
       <c r="K34" t="n">
-        <v>0.07984660147646021</v>
+        <v>0.07984660147645826</v>
       </c>
       <c r="L34" t="n">
-        <v>0.1021761596671386</v>
+        <v>0.1021761596671361</v>
       </c>
       <c r="M34" t="n">
-        <v>0.1077304342142882</v>
+        <v>0.1077304342142856</v>
       </c>
       <c r="N34" t="n">
-        <v>0.1051688452780325</v>
+        <v>0.10516884527803</v>
       </c>
       <c r="O34" t="n">
-        <v>0.09714045068513333</v>
+        <v>0.09714045068513097</v>
       </c>
       <c r="P34" t="n">
-        <v>0.08312043709255293</v>
+        <v>0.0831204370925509</v>
       </c>
       <c r="Q34" t="n">
-        <v>0.05754828217524845</v>
+        <v>0.05754828217524705</v>
       </c>
       <c r="R34" t="n">
-        <v>0.03090150946029516</v>
+        <v>0.03090150946029441</v>
       </c>
       <c r="S34" t="n">
-        <v>0.01197699022146903</v>
+        <v>0.01197699022146874</v>
       </c>
       <c r="T34" t="n">
-        <v>0.00293645560985417</v>
+        <v>0.002936455609854099</v>
       </c>
       <c r="U34" t="n">
-        <v>3.748666735984053e-05</v>
+        <v>3.748666735983961e-05</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.001532118397956628</v>
+        <v>0.001532118397956591</v>
       </c>
       <c r="H35" t="n">
-        <v>0.01569080754307332</v>
+        <v>0.01569080754307294</v>
       </c>
       <c r="I35" t="n">
-        <v>0.05906699453722297</v>
+        <v>0.05906699453722154</v>
       </c>
       <c r="J35" t="n">
-        <v>0.1300366338785715</v>
+        <v>0.1300366338785683</v>
       </c>
       <c r="K35" t="n">
-        <v>0.1948912056640756</v>
+        <v>0.1948912056640709</v>
       </c>
       <c r="L35" t="n">
-        <v>0.2417797740855408</v>
+        <v>0.2417797740855349</v>
       </c>
       <c r="M35" t="n">
-        <v>0.269026584645202</v>
+        <v>0.2690265846451955</v>
       </c>
       <c r="N35" t="n">
-        <v>0.2733797160433963</v>
+        <v>0.2733797160433897</v>
       </c>
       <c r="O35" t="n">
-        <v>0.2581447137237151</v>
+        <v>0.2581447137237088</v>
       </c>
       <c r="P35" t="n">
-        <v>0.2203205407741608</v>
+        <v>0.2203205407741554</v>
       </c>
       <c r="Q35" t="n">
-        <v>0.165451550647339</v>
+        <v>0.1654515506473349</v>
       </c>
       <c r="R35" t="n">
-        <v>0.09624193231564314</v>
+        <v>0.09624193231564079</v>
       </c>
       <c r="S35" t="n">
-        <v>0.0349131479934367</v>
+        <v>0.03491314799343585</v>
       </c>
       <c r="T35" t="n">
-        <v>0.006706848287055144</v>
+        <v>0.006706848287054981</v>
       </c>
       <c r="U35" t="n">
-        <v>0.0001225694718365302</v>
+        <v>0.0001225694718365273</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.0008197556126425495</v>
+        <v>0.0008197556126425295</v>
       </c>
       <c r="H36" t="n">
-        <v>0.007917113416837256</v>
+        <v>0.007917113416837063</v>
       </c>
       <c r="I36" t="n">
-        <v>0.02822404192650883</v>
+        <v>0.02822404192650815</v>
       </c>
       <c r="J36" t="n">
-        <v>0.07744892829795245</v>
+        <v>0.07744892829795058</v>
       </c>
       <c r="K36" t="n">
-        <v>0.1323725543450033</v>
+        <v>0.1323725543450001</v>
       </c>
       <c r="L36" t="n">
-        <v>0.1779912351046904</v>
+        <v>0.1779912351046861</v>
       </c>
       <c r="M36" t="n">
-        <v>0.2077073760629828</v>
+        <v>0.2077073760629777</v>
       </c>
       <c r="N36" t="n">
-        <v>0.2132047722547831</v>
+        <v>0.2132047722547779</v>
       </c>
       <c r="O36" t="n">
-        <v>0.1950407136799139</v>
+        <v>0.1950407136799092</v>
       </c>
       <c r="P36" t="n">
-        <v>0.15653736782119</v>
+        <v>0.1565373678211862</v>
       </c>
       <c r="Q36" t="n">
-        <v>0.1046410848699507</v>
+        <v>0.1046410848699482</v>
       </c>
       <c r="R36" t="n">
-        <v>0.050896756370912</v>
+        <v>0.05089675637091075</v>
       </c>
       <c r="S36" t="n">
-        <v>0.01522660096289998</v>
+        <v>0.01522660096289961</v>
       </c>
       <c r="T36" t="n">
-        <v>0.003304190386046064</v>
+        <v>0.003304190386045984</v>
       </c>
       <c r="U36" t="n">
-        <v>5.393129030543091e-05</v>
+        <v>5.393129030542959e-05</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.0006872555682637422</v>
+        <v>0.0006872555682637254</v>
       </c>
       <c r="H37" t="n">
-        <v>0.006110326779654003</v>
+        <v>0.006110326779653854</v>
       </c>
       <c r="I37" t="n">
-        <v>0.02066764927105872</v>
+        <v>0.02066764927105822</v>
       </c>
       <c r="J37" t="n">
-        <v>0.04858896867624656</v>
+        <v>0.04858896867624538</v>
       </c>
       <c r="K37" t="n">
-        <v>0.07984660147646021</v>
+        <v>0.07984660147645826</v>
       </c>
       <c r="L37" t="n">
-        <v>0.1021761596671386</v>
+        <v>0.1021761596671361</v>
       </c>
       <c r="M37" t="n">
-        <v>0.1077304342142882</v>
+        <v>0.1077304342142856</v>
       </c>
       <c r="N37" t="n">
-        <v>0.1051688452780325</v>
+        <v>0.10516884527803</v>
       </c>
       <c r="O37" t="n">
-        <v>0.09714045068513333</v>
+        <v>0.09714045068513097</v>
       </c>
       <c r="P37" t="n">
-        <v>0.08312043709255293</v>
+        <v>0.0831204370925509</v>
       </c>
       <c r="Q37" t="n">
-        <v>0.05754828217524845</v>
+        <v>0.05754828217524705</v>
       </c>
       <c r="R37" t="n">
-        <v>0.03090150946029516</v>
+        <v>0.03090150946029441</v>
       </c>
       <c r="S37" t="n">
-        <v>0.01197699022146903</v>
+        <v>0.01197699022146874</v>
       </c>
       <c r="T37" t="n">
-        <v>0.00293645560985417</v>
+        <v>0.002936455609854099</v>
       </c>
       <c r="U37" t="n">
-        <v>3.748666735984053e-05</v>
+        <v>3.748666735983961e-05</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.001532118397956628</v>
+        <v>0.001532118397956591</v>
       </c>
       <c r="H38" t="n">
-        <v>0.01569080754307332</v>
+        <v>0.01569080754307294</v>
       </c>
       <c r="I38" t="n">
-        <v>0.05906699453722297</v>
+        <v>0.05906699453722154</v>
       </c>
       <c r="J38" t="n">
-        <v>0.1300366338785715</v>
+        <v>0.1300366338785683</v>
       </c>
       <c r="K38" t="n">
-        <v>0.1948912056640756</v>
+        <v>0.1948912056640709</v>
       </c>
       <c r="L38" t="n">
-        <v>0.2417797740855408</v>
+        <v>0.2417797740855349</v>
       </c>
       <c r="M38" t="n">
-        <v>0.269026584645202</v>
+        <v>0.2690265846451955</v>
       </c>
       <c r="N38" t="n">
-        <v>0.2733797160433963</v>
+        <v>0.2733797160433897</v>
       </c>
       <c r="O38" t="n">
-        <v>0.2581447137237151</v>
+        <v>0.2581447137237088</v>
       </c>
       <c r="P38" t="n">
-        <v>0.2203205407741608</v>
+        <v>0.2203205407741554</v>
       </c>
       <c r="Q38" t="n">
-        <v>0.165451550647339</v>
+        <v>0.1654515506473349</v>
       </c>
       <c r="R38" t="n">
-        <v>0.09624193231564314</v>
+        <v>0.09624193231564079</v>
       </c>
       <c r="S38" t="n">
-        <v>0.0349131479934367</v>
+        <v>0.03491314799343585</v>
       </c>
       <c r="T38" t="n">
-        <v>0.006706848287055144</v>
+        <v>0.006706848287054981</v>
       </c>
       <c r="U38" t="n">
-        <v>0.0001225694718365302</v>
+        <v>0.0001225694718365273</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.0008197556126425495</v>
+        <v>0.0008197556126425295</v>
       </c>
       <c r="H39" t="n">
-        <v>0.007917113416837256</v>
+        <v>0.007917113416837063</v>
       </c>
       <c r="I39" t="n">
-        <v>0.02822404192650883</v>
+        <v>0.02822404192650815</v>
       </c>
       <c r="J39" t="n">
-        <v>0.07744892829795245</v>
+        <v>0.07744892829795058</v>
       </c>
       <c r="K39" t="n">
-        <v>0.1323725543450033</v>
+        <v>0.1323725543450001</v>
       </c>
       <c r="L39" t="n">
-        <v>0.1779912351046904</v>
+        <v>0.1779912351046861</v>
       </c>
       <c r="M39" t="n">
-        <v>0.2077073760629828</v>
+        <v>0.2077073760629777</v>
       </c>
       <c r="N39" t="n">
-        <v>0.2132047722547831</v>
+        <v>0.2132047722547779</v>
       </c>
       <c r="O39" t="n">
-        <v>0.1950407136799139</v>
+        <v>0.1950407136799092</v>
       </c>
       <c r="P39" t="n">
-        <v>0.15653736782119</v>
+        <v>0.1565373678211862</v>
       </c>
       <c r="Q39" t="n">
-        <v>0.1046410848699507</v>
+        <v>0.1046410848699482</v>
       </c>
       <c r="R39" t="n">
-        <v>0.050896756370912</v>
+        <v>0.05089675637091075</v>
       </c>
       <c r="S39" t="n">
-        <v>0.01522660096289998</v>
+        <v>0.01522660096289961</v>
       </c>
       <c r="T39" t="n">
-        <v>0.003304190386046064</v>
+        <v>0.003304190386045984</v>
       </c>
       <c r="U39" t="n">
-        <v>5.393129030543091e-05</v>
+        <v>5.393129030542959e-05</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.0006872555682637422</v>
+        <v>0.0006872555682637254</v>
       </c>
       <c r="H40" t="n">
-        <v>0.006110326779654003</v>
+        <v>0.006110326779653854</v>
       </c>
       <c r="I40" t="n">
-        <v>0.02066764927105872</v>
+        <v>0.02066764927105822</v>
       </c>
       <c r="J40" t="n">
-        <v>0.04858896867624656</v>
+        <v>0.04858896867624538</v>
       </c>
       <c r="K40" t="n">
-        <v>0.07984660147646021</v>
+        <v>0.07984660147645826</v>
       </c>
       <c r="L40" t="n">
-        <v>0.1021761596671386</v>
+        <v>0.1021761596671361</v>
       </c>
       <c r="M40" t="n">
-        <v>0.1077304342142882</v>
+        <v>0.1077304342142856</v>
       </c>
       <c r="N40" t="n">
-        <v>0.1051688452780325</v>
+        <v>0.10516884527803</v>
       </c>
       <c r="O40" t="n">
-        <v>0.09714045068513333</v>
+        <v>0.09714045068513097</v>
       </c>
       <c r="P40" t="n">
-        <v>0.08312043709255293</v>
+        <v>0.0831204370925509</v>
       </c>
       <c r="Q40" t="n">
-        <v>0.05754828217524845</v>
+        <v>0.05754828217524705</v>
       </c>
       <c r="R40" t="n">
-        <v>0.03090150946029516</v>
+        <v>0.03090150946029441</v>
       </c>
       <c r="S40" t="n">
-        <v>0.01197699022146903</v>
+        <v>0.01197699022146874</v>
       </c>
       <c r="T40" t="n">
-        <v>0.00293645560985417</v>
+        <v>0.002936455609854099</v>
       </c>
       <c r="U40" t="n">
-        <v>3.748666735984053e-05</v>
+        <v>3.748666735983961e-05</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.001532118397956628</v>
+        <v>0.001532118397956606</v>
       </c>
       <c r="H41" t="n">
-        <v>0.01569080754307332</v>
+        <v>0.0156908075430731</v>
       </c>
       <c r="I41" t="n">
-        <v>0.05906699453722297</v>
+        <v>0.05906699453722212</v>
       </c>
       <c r="J41" t="n">
-        <v>0.1300366338785715</v>
+        <v>0.1300366338785696</v>
       </c>
       <c r="K41" t="n">
-        <v>0.1948912056640756</v>
+        <v>0.1948912056640728</v>
       </c>
       <c r="L41" t="n">
-        <v>0.2417797740855408</v>
+        <v>0.2417797740855373</v>
       </c>
       <c r="M41" t="n">
-        <v>0.269026584645202</v>
+        <v>0.2690265846451981</v>
       </c>
       <c r="N41" t="n">
-        <v>0.2733797160433963</v>
+        <v>0.2733797160433923</v>
       </c>
       <c r="O41" t="n">
-        <v>0.2581447137237151</v>
+        <v>0.2581447137237113</v>
       </c>
       <c r="P41" t="n">
-        <v>0.2203205407741608</v>
+        <v>0.2203205407741576</v>
       </c>
       <c r="Q41" t="n">
-        <v>0.165451550647339</v>
+        <v>0.1654515506473366</v>
       </c>
       <c r="R41" t="n">
-        <v>0.09624193231564314</v>
+        <v>0.09624193231564175</v>
       </c>
       <c r="S41" t="n">
-        <v>0.0349131479934367</v>
+        <v>0.0349131479934362</v>
       </c>
       <c r="T41" t="n">
-        <v>0.006706848287055144</v>
+        <v>0.006706848287055047</v>
       </c>
       <c r="U41" t="n">
-        <v>0.0001225694718365302</v>
+        <v>0.0001225694718365285</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.0008197556126425495</v>
+        <v>0.0008197556126425376</v>
       </c>
       <c r="H42" t="n">
-        <v>0.007917113416837256</v>
+        <v>0.007917113416837141</v>
       </c>
       <c r="I42" t="n">
-        <v>0.02822404192650883</v>
+        <v>0.02822404192650843</v>
       </c>
       <c r="J42" t="n">
-        <v>0.07744892829795245</v>
+        <v>0.07744892829795134</v>
       </c>
       <c r="K42" t="n">
-        <v>0.1323725543450033</v>
+        <v>0.1323725543450014</v>
       </c>
       <c r="L42" t="n">
-        <v>0.1779912351046904</v>
+        <v>0.1779912351046878</v>
       </c>
       <c r="M42" t="n">
-        <v>0.2077073760629828</v>
+        <v>0.2077073760629798</v>
       </c>
       <c r="N42" t="n">
-        <v>0.2132047722547831</v>
+        <v>0.21320477225478</v>
       </c>
       <c r="O42" t="n">
-        <v>0.1950407136799139</v>
+        <v>0.1950407136799111</v>
       </c>
       <c r="P42" t="n">
-        <v>0.15653736782119</v>
+        <v>0.1565373678211877</v>
       </c>
       <c r="Q42" t="n">
-        <v>0.1046410848699507</v>
+        <v>0.1046410848699492</v>
       </c>
       <c r="R42" t="n">
-        <v>0.050896756370912</v>
+        <v>0.05089675637091126</v>
       </c>
       <c r="S42" t="n">
-        <v>0.01522660096289998</v>
+        <v>0.01522660096289976</v>
       </c>
       <c r="T42" t="n">
-        <v>0.003304190386046064</v>
+        <v>0.003304190386046017</v>
       </c>
       <c r="U42" t="n">
-        <v>5.393129030543091e-05</v>
+        <v>5.393129030543013e-05</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.0006872555682637422</v>
+        <v>0.0006872555682637322</v>
       </c>
       <c r="H43" t="n">
-        <v>0.006110326779654003</v>
+        <v>0.006110326779653914</v>
       </c>
       <c r="I43" t="n">
-        <v>0.02066764927105872</v>
+        <v>0.02066764927105843</v>
       </c>
       <c r="J43" t="n">
-        <v>0.04858896867624656</v>
+        <v>0.04858896867624586</v>
       </c>
       <c r="K43" t="n">
-        <v>0.07984660147646021</v>
+        <v>0.07984660147645906</v>
       </c>
       <c r="L43" t="n">
-        <v>0.1021761596671386</v>
+        <v>0.1021761596671371</v>
       </c>
       <c r="M43" t="n">
-        <v>0.1077304342142882</v>
+        <v>0.1077304342142867</v>
       </c>
       <c r="N43" t="n">
-        <v>0.1051688452780325</v>
+        <v>0.105168845278031</v>
       </c>
       <c r="O43" t="n">
-        <v>0.09714045068513333</v>
+        <v>0.09714045068513193</v>
       </c>
       <c r="P43" t="n">
-        <v>0.08312043709255293</v>
+        <v>0.08312043709255172</v>
       </c>
       <c r="Q43" t="n">
-        <v>0.05754828217524845</v>
+        <v>0.05754828217524761</v>
       </c>
       <c r="R43" t="n">
-        <v>0.03090150946029516</v>
+        <v>0.03090150946029472</v>
       </c>
       <c r="S43" t="n">
-        <v>0.01197699022146903</v>
+        <v>0.01197699022146886</v>
       </c>
       <c r="T43" t="n">
-        <v>0.00293645560985417</v>
+        <v>0.002936455609854128</v>
       </c>
       <c r="U43" t="n">
-        <v>3.748666735984053e-05</v>
+        <v>3.748666735983998e-05</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.001532118397956628</v>
+        <v>0.001532118397956606</v>
       </c>
       <c r="H44" t="n">
-        <v>0.01569080754307332</v>
+        <v>0.0156908075430731</v>
       </c>
       <c r="I44" t="n">
-        <v>0.05906699453722297</v>
+        <v>0.05906699453722212</v>
       </c>
       <c r="J44" t="n">
-        <v>0.1300366338785715</v>
+        <v>0.1300366338785696</v>
       </c>
       <c r="K44" t="n">
-        <v>0.1948912056640756</v>
+        <v>0.1948912056640728</v>
       </c>
       <c r="L44" t="n">
-        <v>0.2417797740855408</v>
+        <v>0.2417797740855373</v>
       </c>
       <c r="M44" t="n">
-        <v>0.269026584645202</v>
+        <v>0.2690265846451981</v>
       </c>
       <c r="N44" t="n">
-        <v>0.2733797160433963</v>
+        <v>0.2733797160433923</v>
       </c>
       <c r="O44" t="n">
-        <v>0.2581447137237151</v>
+        <v>0.2581447137237113</v>
       </c>
       <c r="P44" t="n">
-        <v>0.2203205407741608</v>
+        <v>0.2203205407741576</v>
       </c>
       <c r="Q44" t="n">
-        <v>0.165451550647339</v>
+        <v>0.1654515506473366</v>
       </c>
       <c r="R44" t="n">
-        <v>0.09624193231564314</v>
+        <v>0.09624193231564175</v>
       </c>
       <c r="S44" t="n">
-        <v>0.0349131479934367</v>
+        <v>0.0349131479934362</v>
       </c>
       <c r="T44" t="n">
-        <v>0.006706848287055144</v>
+        <v>0.006706848287055047</v>
       </c>
       <c r="U44" t="n">
-        <v>0.0001225694718365302</v>
+        <v>0.0001225694718365285</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.0008197556126425495</v>
+        <v>0.0008197556126425376</v>
       </c>
       <c r="H45" t="n">
-        <v>0.007917113416837256</v>
+        <v>0.007917113416837141</v>
       </c>
       <c r="I45" t="n">
-        <v>0.02822404192650883</v>
+        <v>0.02822404192650843</v>
       </c>
       <c r="J45" t="n">
-        <v>0.07744892829795245</v>
+        <v>0.07744892829795134</v>
       </c>
       <c r="K45" t="n">
-        <v>0.1323725543450033</v>
+        <v>0.1323725543450014</v>
       </c>
       <c r="L45" t="n">
-        <v>0.1779912351046904</v>
+        <v>0.1779912351046878</v>
       </c>
       <c r="M45" t="n">
-        <v>0.2077073760629828</v>
+        <v>0.2077073760629798</v>
       </c>
       <c r="N45" t="n">
-        <v>0.2132047722547831</v>
+        <v>0.21320477225478</v>
       </c>
       <c r="O45" t="n">
-        <v>0.1950407136799139</v>
+        <v>0.1950407136799111</v>
       </c>
       <c r="P45" t="n">
-        <v>0.15653736782119</v>
+        <v>0.1565373678211877</v>
       </c>
       <c r="Q45" t="n">
-        <v>0.1046410848699507</v>
+        <v>0.1046410848699492</v>
       </c>
       <c r="R45" t="n">
-        <v>0.050896756370912</v>
+        <v>0.05089675637091126</v>
       </c>
       <c r="S45" t="n">
-        <v>0.01522660096289998</v>
+        <v>0.01522660096289976</v>
       </c>
       <c r="T45" t="n">
-        <v>0.003304190386046064</v>
+        <v>0.003304190386046017</v>
       </c>
       <c r="U45" t="n">
-        <v>5.393129030543091e-05</v>
+        <v>5.393129030543013e-05</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.0006872555682637422</v>
+        <v>0.0006872555682637322</v>
       </c>
       <c r="H46" t="n">
-        <v>0.006110326779654003</v>
+        <v>0.006110326779653914</v>
       </c>
       <c r="I46" t="n">
-        <v>0.02066764927105872</v>
+        <v>0.02066764927105843</v>
       </c>
       <c r="J46" t="n">
-        <v>0.04858896867624656</v>
+        <v>0.04858896867624586</v>
       </c>
       <c r="K46" t="n">
-        <v>0.07984660147646021</v>
+        <v>0.07984660147645906</v>
       </c>
       <c r="L46" t="n">
-        <v>0.1021761596671386</v>
+        <v>0.1021761596671371</v>
       </c>
       <c r="M46" t="n">
-        <v>0.1077304342142882</v>
+        <v>0.1077304342142867</v>
       </c>
       <c r="N46" t="n">
-        <v>0.1051688452780325</v>
+        <v>0.105168845278031</v>
       </c>
       <c r="O46" t="n">
-        <v>0.09714045068513333</v>
+        <v>0.09714045068513193</v>
       </c>
       <c r="P46" t="n">
-        <v>0.08312043709255293</v>
+        <v>0.08312043709255172</v>
       </c>
       <c r="Q46" t="n">
-        <v>0.05754828217524845</v>
+        <v>0.05754828217524761</v>
       </c>
       <c r="R46" t="n">
-        <v>0.03090150946029516</v>
+        <v>0.03090150946029472</v>
       </c>
       <c r="S46" t="n">
-        <v>0.01197699022146903</v>
+        <v>0.01197699022146886</v>
       </c>
       <c r="T46" t="n">
-        <v>0.00293645560985417</v>
+        <v>0.002936455609854128</v>
       </c>
       <c r="U46" t="n">
-        <v>3.748666735984053e-05</v>
+        <v>3.748666735983998e-05</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34704,7 +34704,7 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L2" t="n">
-        <v>498.303324968211</v>
+        <v>498.3033249682109</v>
       </c>
       <c r="M2" t="n">
         <v>551.5160606510915</v>
@@ -34786,13 +34786,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M3" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>545.2308884987849</v>
+        <v>657.606006716664</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -34941,7 +34941,7 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L5" t="n">
-        <v>498.303324968211</v>
+        <v>498.3033249682109</v>
       </c>
       <c r="M5" t="n">
         <v>551.5160606510915</v>
@@ -34956,7 +34956,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q5" t="n">
-        <v>186.7126870110593</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,22 +35014,22 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M6" t="n">
-        <v>595.6737123351868</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>662.4019911217769</v>
+        <v>362.1450102553808</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P6" t="n">
         <v>409.7185542589873</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K9" t="n">
-        <v>35.0500461102036</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>634.1127774006881</v>
       </c>
       <c r="N9" t="n">
-        <v>662.4019911217769</v>
+        <v>425.1941012797557</v>
       </c>
       <c r="O9" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35497,7 +35497,7 @@
         <v>488.6285830515827</v>
       </c>
       <c r="M12" t="n">
-        <v>258.5928915614051</v>
+        <v>634.3204847767511</v>
       </c>
       <c r="N12" t="n">
         <v>662.6151958940317</v>
@@ -35506,7 +35506,7 @@
         <v>521.932699896489</v>
       </c>
       <c r="P12" t="n">
-        <v>409.8750916268085</v>
+        <v>34.14749841146217</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35658,7 +35658,7 @@
         <v>551.7850872357367</v>
       </c>
       <c r="N14" t="n">
-        <v>533.4160904609546</v>
+        <v>533.4160904609545</v>
       </c>
       <c r="O14" t="n">
         <v>444.74259005951</v>
@@ -35734,19 +35734,19 @@
         <v>488.6285830515827</v>
       </c>
       <c r="M15" t="n">
-        <v>634.3204847767511</v>
+        <v>361.2698236979219</v>
       </c>
       <c r="N15" t="n">
-        <v>662.6151958940317</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>232.9789913473173</v>
+        <v>521.932699896489</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>409.8750916268085</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>236.8370567968805</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35813,13 +35813,13 @@
         <v>259.847860946202</v>
       </c>
       <c r="M16" t="n">
-        <v>282.2412318515211</v>
+        <v>282.2412318515212</v>
       </c>
       <c r="N16" t="n">
         <v>279.1053931847518</v>
       </c>
       <c r="O16" t="n">
-        <v>258.4055799522789</v>
+        <v>258.405579952279</v>
       </c>
       <c r="P16" t="n">
         <v>215.1303465395657</v>
@@ -35895,7 +35895,7 @@
         <v>551.7850872357367</v>
       </c>
       <c r="N17" t="n">
-        <v>533.4160904609546</v>
+        <v>533.4160904609545</v>
       </c>
       <c r="O17" t="n">
         <v>444.74259005951</v>
@@ -35965,16 +35965,16 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>112.9009898362369</v>
+        <v>323.1012069606343</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>488.6285830515827</v>
       </c>
       <c r="M18" t="n">
-        <v>634.3204847767511</v>
+        <v>361.2698236979219</v>
       </c>
       <c r="N18" t="n">
-        <v>662.6151958940317</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>521.932699896489</v>
@@ -35983,7 +35983,7 @@
         <v>409.8750916268085</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>236.8370567968805</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36047,7 +36047,7 @@
         <v>176.7016942528014</v>
       </c>
       <c r="L19" t="n">
-        <v>259.8478609462021</v>
+        <v>259.847860946202</v>
       </c>
       <c r="M19" t="n">
         <v>282.2412318515212</v>
@@ -36056,7 +36056,7 @@
         <v>279.1053931847518</v>
       </c>
       <c r="O19" t="n">
-        <v>258.405579952279</v>
+        <v>258.4055799522789</v>
       </c>
       <c r="P19" t="n">
         <v>215.1303465395657</v>
@@ -36132,7 +36132,7 @@
         <v>551.7850872357367</v>
       </c>
       <c r="N20" t="n">
-        <v>533.4160904609546</v>
+        <v>533.4160904609545</v>
       </c>
       <c r="O20" t="n">
         <v>444.74259005951</v>
@@ -36199,16 +36199,16 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>114.3350067260024</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>323.1012069606343</v>
       </c>
       <c r="L21" t="n">
-        <v>488.6285830515827</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>634.3204847767511</v>
+        <v>72.94820412947062</v>
       </c>
       <c r="N21" t="n">
         <v>662.6151958940317</v>
@@ -36217,10 +36217,10 @@
         <v>521.932699896489</v>
       </c>
       <c r="P21" t="n">
-        <v>34.14749841146217</v>
+        <v>409.8750916268085</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>236.8370567968805</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>63.93429146103213</v>
+        <v>63.93429146103212</v>
       </c>
       <c r="K22" t="n">
         <v>176.7016942528014</v>
@@ -36369,7 +36369,7 @@
         <v>551.7850872357367</v>
       </c>
       <c r="N23" t="n">
-        <v>533.4160904609546</v>
+        <v>533.4160904609545</v>
       </c>
       <c r="O23" t="n">
         <v>444.74259005951</v>
@@ -36439,25 +36439,25 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>323.1012069606343</v>
       </c>
       <c r="L24" t="n">
         <v>488.6285830515827</v>
       </c>
       <c r="M24" t="n">
-        <v>634.3204847767511</v>
+        <v>361.2698236979219</v>
       </c>
       <c r="N24" t="n">
-        <v>662.6151958940317</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>521.932699896489</v>
       </c>
       <c r="P24" t="n">
-        <v>34.14749841146217</v>
+        <v>409.8750916268085</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>236.8370567968805</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>63.93429146103213</v>
+        <v>63.93429146103212</v>
       </c>
       <c r="K25" t="n">
         <v>176.7016942528014</v>
@@ -36524,7 +36524,7 @@
         <v>259.847860946202</v>
       </c>
       <c r="M25" t="n">
-        <v>282.2412318515213</v>
+        <v>282.2412318515211</v>
       </c>
       <c r="N25" t="n">
         <v>279.1053931847518</v>
@@ -36533,7 +36533,7 @@
         <v>258.4055799522789</v>
       </c>
       <c r="P25" t="n">
-        <v>215.1303465395657</v>
+        <v>215.1303465395659</v>
       </c>
       <c r="Q25" t="n">
         <v>97.47450225684268</v>
@@ -36606,7 +36606,7 @@
         <v>551.7850872357367</v>
       </c>
       <c r="N26" t="n">
-        <v>533.4160904609546</v>
+        <v>533.4160904609545</v>
       </c>
       <c r="O26" t="n">
         <v>444.74259005951</v>
@@ -36676,16 +36676,16 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>323.1012069606343</v>
       </c>
       <c r="L27" t="n">
         <v>488.6285830515827</v>
       </c>
       <c r="M27" t="n">
-        <v>258.5928915614051</v>
+        <v>361.2698236979219</v>
       </c>
       <c r="N27" t="n">
-        <v>662.6151958940317</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>521.932699896489</v>
@@ -36694,7 +36694,7 @@
         <v>409.8750916268085</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>236.8370567968805</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>63.9342914610321</v>
+        <v>63.93429146103212</v>
       </c>
       <c r="K28" t="n">
         <v>176.7016942528014</v>
@@ -36770,10 +36770,10 @@
         <v>258.4055799522789</v>
       </c>
       <c r="P28" t="n">
-        <v>215.1303465395656</v>
+        <v>215.1303465395657</v>
       </c>
       <c r="Q28" t="n">
-        <v>97.47450225684265</v>
+        <v>97.47450225684268</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36843,7 +36843,7 @@
         <v>551.7850872357367</v>
       </c>
       <c r="N29" t="n">
-        <v>533.4160904609546</v>
+        <v>533.4160904609545</v>
       </c>
       <c r="O29" t="n">
         <v>444.74259005951</v>
@@ -36913,25 +36913,25 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>323.1012069606343</v>
       </c>
       <c r="L30" t="n">
         <v>488.6285830515827</v>
       </c>
       <c r="M30" t="n">
-        <v>634.3204847767511</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>662.6151958940317</v>
+        <v>361.2698236979219</v>
       </c>
       <c r="O30" t="n">
         <v>521.932699896489</v>
       </c>
       <c r="P30" t="n">
-        <v>34.14749841146264</v>
+        <v>409.8750916268085</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>236.8370567968805</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>63.9342914610321</v>
+        <v>63.93429146103213</v>
       </c>
       <c r="K31" t="n">
         <v>176.7016942528014</v>
@@ -36998,7 +36998,7 @@
         <v>259.847860946202</v>
       </c>
       <c r="M31" t="n">
-        <v>282.2412318515211</v>
+        <v>282.2412318515212</v>
       </c>
       <c r="N31" t="n">
         <v>279.1053931847518</v>
@@ -37007,10 +37007,10 @@
         <v>258.4055799522789</v>
       </c>
       <c r="P31" t="n">
-        <v>215.1303465395656</v>
+        <v>215.1303465395657</v>
       </c>
       <c r="Q31" t="n">
-        <v>97.47450225684265</v>
+        <v>97.47450225684268</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37080,7 +37080,7 @@
         <v>551.7850872357367</v>
       </c>
       <c r="N32" t="n">
-        <v>533.4160904609546</v>
+        <v>533.4160904609545</v>
       </c>
       <c r="O32" t="n">
         <v>444.74259005951</v>
@@ -37150,7 +37150,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>323.1012069606343</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>488.6285830515827</v>
@@ -37159,16 +37159,16 @@
         <v>634.3204847767511</v>
       </c>
       <c r="N33" t="n">
-        <v>662.6151958940317</v>
+        <v>50.05054588180501</v>
       </c>
       <c r="O33" t="n">
-        <v>232.9789913473173</v>
+        <v>521.932699896489</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>409.8750916268085</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>236.8370567968805</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>63.93429146103244</v>
+        <v>63.9342914610321</v>
       </c>
       <c r="K34" t="n">
         <v>176.7016942528014</v>
@@ -37241,7 +37241,7 @@
         <v>279.1053931847518</v>
       </c>
       <c r="O34" t="n">
-        <v>258.4055799522789</v>
+        <v>258.4055799522794</v>
       </c>
       <c r="P34" t="n">
         <v>215.1303465395656</v>
@@ -37317,7 +37317,7 @@
         <v>551.7850872357367</v>
       </c>
       <c r="N35" t="n">
-        <v>533.4160904609546</v>
+        <v>533.4160904609545</v>
       </c>
       <c r="O35" t="n">
         <v>444.74259005951</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>114.3350067260024</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>323.1012069606343</v>
       </c>
       <c r="L36" t="n">
         <v>488.6285830515827</v>
       </c>
       <c r="M36" t="n">
-        <v>554.1329764622112</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>662.6151958940317</v>
+        <v>361.2698236979219</v>
       </c>
       <c r="O36" t="n">
         <v>521.932699896489</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>409.8750916268085</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>236.8370567968805</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37475,7 +37475,7 @@
         <v>282.2412318515211</v>
       </c>
       <c r="N37" t="n">
-        <v>279.1053931847517</v>
+        <v>279.1053931847522</v>
       </c>
       <c r="O37" t="n">
         <v>258.4055799522789</v>
@@ -37554,7 +37554,7 @@
         <v>551.7850872357367</v>
       </c>
       <c r="N38" t="n">
-        <v>533.4160904609546</v>
+        <v>533.4160904609545</v>
       </c>
       <c r="O38" t="n">
         <v>444.74259005951</v>
@@ -37627,13 +37627,13 @@
         <v>323.1012069606343</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>488.6285830515827</v>
       </c>
       <c r="M39" t="n">
-        <v>424.1202676523536</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>662.6151958940317</v>
+        <v>361.2698236979219</v>
       </c>
       <c r="O39" t="n">
         <v>521.932699896489</v>
@@ -37642,7 +37642,7 @@
         <v>409.8750916268085</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>236.8370567968805</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37712,7 +37712,7 @@
         <v>282.2412318515211</v>
       </c>
       <c r="N40" t="n">
-        <v>279.1053931847518</v>
+        <v>279.1053931847517</v>
       </c>
       <c r="O40" t="n">
         <v>258.4055799522789</v>
@@ -37721,7 +37721,7 @@
         <v>215.1303465395656</v>
       </c>
       <c r="Q40" t="n">
-        <v>97.47450225684317</v>
+        <v>97.47450225684265</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37791,7 +37791,7 @@
         <v>551.7850872357367</v>
       </c>
       <c r="N41" t="n">
-        <v>533.4160904609546</v>
+        <v>533.4160904609545</v>
       </c>
       <c r="O41" t="n">
         <v>444.74259005951</v>
@@ -37867,10 +37867,10 @@
         <v>488.6285830515827</v>
       </c>
       <c r="M42" t="n">
-        <v>598.1068804948025</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>361.2698236979219</v>
       </c>
       <c r="O42" t="n">
         <v>521.932699896489</v>
@@ -37879,7 +37879,7 @@
         <v>409.8750916268085</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>236.8370567968805</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37958,7 +37958,7 @@
         <v>121.1701565750507</v>
       </c>
       <c r="Q43" t="n">
-        <v>3.514312292327732</v>
+        <v>3.514312292327731</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>146.2409183599676</v>
+        <v>146.2409183599678</v>
       </c>
       <c r="K44" t="n">
         <v>362.8033316374437</v>
@@ -38028,7 +38028,7 @@
         <v>551.7850872357367</v>
       </c>
       <c r="N44" t="n">
-        <v>533.4160904609546</v>
+        <v>533.4160904609545</v>
       </c>
       <c r="O44" t="n">
         <v>444.74259005951</v>
@@ -38095,19 +38095,19 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>114.3350067260024</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>323.1012069606343</v>
       </c>
       <c r="L45" t="n">
-        <v>112.9009898362369</v>
+        <v>488.6285830515827</v>
       </c>
       <c r="M45" t="n">
-        <v>634.3204847767511</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>662.6151958940317</v>
+        <v>246.9348169719196</v>
       </c>
       <c r="O45" t="n">
         <v>521.932699896489</v>
@@ -38116,7 +38116,7 @@
         <v>409.8750916268085</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>236.8370567968805</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38195,7 +38195,7 @@
         <v>121.1701565750507</v>
       </c>
       <c r="Q46" t="n">
-        <v>3.514312292327732</v>
+        <v>3.514312292327731</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
